--- a/data/Noordland_M1204.xlsx
+++ b/data/Noordland_M1204.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="689" documentId="11_F25DC773A252ABEACE02EC05B39F5F165ADE5899" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{5C743FE9-E693-411B-85A2-E733EB431831}"/>
+  <xr:revisionPtr revIDLastSave="697" documentId="11_F25DC773A252ABEACE02EC05B39F5F165ADE5899" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{1C89D6DF-3033-48D9-8F42-F01A16379737}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
   <si>
     <t>experiment</t>
   </si>
@@ -92,6 +92,12 @@
   </si>
   <si>
     <t>NaN</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>m-1</t>
   </si>
 </sst>
 </file>
@@ -410,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O181"/>
+  <dimension ref="A1:P181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -423,7 +429,7 @@
     <col min="8" max="8" width="10.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -469,8 +475,11 @@
       <c r="O1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -516,8 +525,11 @@
       <c r="O2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -571,8 +583,12 @@
         <f t="shared" ref="O3:O34" si="2">J3/SQRT(9.81*C3*E3^3)</f>
         <v>0.32746155591266041</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P3">
+        <f>(C3*9.81)^(1/3)/(J3^(2/3))</f>
+        <v>42.956646768638564</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -626,8 +642,12 @@
         <f t="shared" si="2"/>
         <v>0.4357846274895078</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P4">
+        <f t="shared" ref="P4:P67" si="8">(C4*9.81)^(1/3)/(J4^(2/3))</f>
+        <v>42.956646768638564</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -681,8 +701,12 @@
         <f t="shared" si="2"/>
         <v>0.55427564810883545</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P5">
+        <f t="shared" si="8"/>
+        <v>42.956646768638564</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -736,8 +760,12 @@
         <f t="shared" si="2"/>
         <v>0.66681395795575316</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P6">
+        <f t="shared" si="8"/>
+        <v>42.956646768638564</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -791,8 +819,12 @@
         <f t="shared" si="2"/>
         <v>0.84721652691965632</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P7">
+        <f t="shared" si="8"/>
+        <v>42.956646768638564</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -846,8 +878,12 @@
         <f t="shared" si="2"/>
         <v>0.42866142342455549</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P8">
+        <f t="shared" si="8"/>
+        <v>27.060991748353157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -901,8 +937,12 @@
         <f t="shared" si="2"/>
         <v>0.39426500389842933</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P9">
+        <f t="shared" si="8"/>
+        <v>27.553117280827269</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -956,8 +996,12 @@
         <f t="shared" si="2"/>
         <v>0.40767209638737223</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P10">
+        <f t="shared" si="8"/>
+        <v>21.026963852070217</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1011,8 +1055,12 @@
         <f t="shared" si="2"/>
         <v>0.52583665628858844</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P11">
+        <f t="shared" si="8"/>
+        <v>21.026963852070217</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1066,8 +1114,12 @@
         <f t="shared" si="2"/>
         <v>0.57221799559861375</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P12">
+        <f t="shared" si="8"/>
+        <v>21.026963852070217</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1121,8 +1173,12 @@
         <f t="shared" si="2"/>
         <v>0.65812097858228036</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P13">
+        <f t="shared" si="8"/>
+        <v>20.651401781305378</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1176,8 +1232,12 @@
         <f t="shared" si="2"/>
         <v>0.88580217163643138</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P14">
+        <f t="shared" si="8"/>
+        <v>20.651401781305378</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1231,8 +1291,12 @@
         <f t="shared" si="2"/>
         <v>0.42722098434001693</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P15">
+        <f t="shared" si="8"/>
+        <v>14.690966544851843</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1286,8 +1350,12 @@
         <f t="shared" si="2"/>
         <v>0.43470537428160028</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P16">
+        <f t="shared" si="8"/>
+        <v>14.958133387836618</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1341,8 +1409,12 @@
         <f t="shared" si="2"/>
         <v>0.55492093016280775</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P17">
+        <f t="shared" si="8"/>
+        <v>14.958133387836618</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1396,8 +1468,12 @@
         <f t="shared" si="2"/>
         <v>0.63126519682702209</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P18">
+        <f t="shared" si="8"/>
+        <v>14.690966544851843</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1451,8 +1527,12 @@
         <f t="shared" si="2"/>
         <v>0.71035472457247362</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P19">
+        <f t="shared" si="8"/>
+        <v>14.690966544851843</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1506,8 +1586,12 @@
         <f t="shared" si="2"/>
         <v>0.93611504981014448</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P20">
+        <f t="shared" si="8"/>
+        <v>14.413712054621207</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1561,8 +1645,12 @@
         <f t="shared" si="2"/>
         <v>0.43482900551371678</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P21">
+        <f t="shared" si="8"/>
+        <v>12.764045523811607</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1616,8 +1704,12 @@
         <f t="shared" si="2"/>
         <v>0.45162319877060203</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P22">
+        <f t="shared" si="8"/>
+        <v>11.517471635607196</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1671,8 +1763,12 @@
         <f t="shared" si="2"/>
         <v>0.44056517262854067</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P23">
+        <f t="shared" si="8"/>
+        <v>11.952498867965263</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1726,8 +1822,12 @@
         <f t="shared" si="2"/>
         <v>0.5475791630539536</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P24">
+        <f t="shared" si="8"/>
+        <v>11.952498867965263</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1781,8 +1881,12 @@
         <f t="shared" si="2"/>
         <v>0.62053341485901381</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P25">
+        <f t="shared" si="8"/>
+        <v>11.952498867965263</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1836,8 +1940,12 @@
         <f t="shared" si="2"/>
         <v>0.69567736610237041</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P26">
+        <f t="shared" si="8"/>
+        <v>11.739015587295357</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1891,8 +1999,12 @@
         <f t="shared" si="2"/>
         <v>0.89098571278309091</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P27">
+        <f t="shared" si="8"/>
+        <v>11.739015587295357</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1946,8 +2058,12 @@
         <f t="shared" si="2"/>
         <v>0.4323088117541215</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P28">
+        <f t="shared" si="8"/>
+        <v>10.536487430301253</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2001,8 +2117,12 @@
         <f t="shared" si="2"/>
         <v>0.42811955573004989</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P29">
+        <f t="shared" si="8"/>
+        <v>10.934461839147092</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2056,8 +2176,12 @@
         <f t="shared" si="2"/>
         <v>0.19934332094510737</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P30">
+        <f t="shared" si="8"/>
+        <v>43.737847356588375</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2111,8 +2235,12 @@
         <f t="shared" si="2"/>
         <v>0.25073336319980216</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P31">
+        <f t="shared" si="8"/>
+        <v>43.737847356588375</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2166,8 +2294,12 @@
         <f t="shared" si="2"/>
         <v>0.27937222078259866</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P32">
+        <f t="shared" si="8"/>
+        <v>43.737847356588375</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2221,8 +2353,12 @@
         <f t="shared" si="2"/>
         <v>0.31872767379505451</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P33">
+        <f t="shared" si="8"/>
+        <v>43.737847356588375</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2276,8 +2412,12 @@
         <f t="shared" si="2"/>
         <v>0.43213944133025084</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P34">
+        <f t="shared" si="8"/>
+        <v>43.737847356588375</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2324,15 +2464,19 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <f t="shared" ref="N35:N66" si="8">L35/I35</f>
+        <f t="shared" ref="N35:N66" si="9">L35/I35</f>
         <v>0</v>
       </c>
       <c r="O35">
-        <f t="shared" ref="O35:O66" si="9">J35/SQRT(9.81*C35*E35^3)</f>
+        <f t="shared" ref="O35:O66" si="10">J35/SQRT(9.81*C35*E35^3)</f>
         <v>0.34347593086426975</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P35">
+        <f t="shared" si="8"/>
+        <v>27.553117280827269</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2375,15 +2519,19 @@
         <v>0</v>
       </c>
       <c r="N36">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="10"/>
+        <v>0.40070343768824579</v>
+      </c>
+      <c r="P36">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O36">
-        <f t="shared" si="9"/>
-        <v>0.40070343768824579</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+        <v>21.026963852070217</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2430,15 +2578,19 @@
         <v>0</v>
       </c>
       <c r="N37">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="10"/>
+        <v>0.40081989841552423</v>
+      </c>
+      <c r="P37">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O37">
-        <f t="shared" si="9"/>
-        <v>0.40081989841552423</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+        <v>21.389568969461827</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2485,15 +2637,19 @@
         <v>4.477611940298507E-4</v>
       </c>
       <c r="N38">
+        <f t="shared" si="9"/>
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="10"/>
+        <v>0.50730126102916095</v>
+      </c>
+      <c r="P38">
         <f t="shared" si="8"/>
-        <v>9.9999999999999992E-2</v>
-      </c>
-      <c r="O38">
-        <f t="shared" si="9"/>
-        <v>0.50730126102916095</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+        <v>21.389568969461827</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2540,15 +2696,19 @@
         <v>8.9552238805970139E-4</v>
       </c>
       <c r="N39">
+        <f t="shared" si="9"/>
+        <v>0.19999999999999998</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="10"/>
+        <v>0.58288750597896322</v>
+      </c>
+      <c r="P39">
         <f t="shared" si="8"/>
-        <v>0.19999999999999998</v>
-      </c>
-      <c r="O39">
-        <f t="shared" si="9"/>
-        <v>0.58288750597896322</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+        <v>21.389568969461827</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -2595,15 +2755,19 @@
         <v>1.3432835820895521E-3</v>
       </c>
       <c r="N40">
+        <f t="shared" si="9"/>
+        <v>0.3</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="10"/>
+        <v>0.65480112403016055</v>
+      </c>
+      <c r="P40">
         <f t="shared" si="8"/>
-        <v>0.3</v>
-      </c>
-      <c r="O40">
-        <f t="shared" si="9"/>
-        <v>0.65480112403016055</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+        <v>21.389568969461827</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -2650,15 +2814,19 @@
         <v>2.2388059701492534E-3</v>
       </c>
       <c r="N41">
+        <f t="shared" si="9"/>
+        <v>0.5</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="10"/>
+        <v>0.89075831140964823</v>
+      </c>
+      <c r="P41">
         <f t="shared" si="8"/>
-        <v>0.5</v>
-      </c>
-      <c r="O41">
-        <f t="shared" si="9"/>
-        <v>0.89075831140964823</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+        <v>21.389568969461827</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -2705,15 +2873,19 @@
         <v>0</v>
       </c>
       <c r="N42">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="10"/>
+        <v>0.42916776807177492</v>
+      </c>
+      <c r="P42">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O42">
-        <f t="shared" si="9"/>
-        <v>0.42916776807177492</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+        <v>14.958133387836618</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2760,15 +2932,19 @@
         <v>0</v>
       </c>
       <c r="N43">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="10"/>
+        <v>0.42374674182683031</v>
+      </c>
+      <c r="P43">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O43">
-        <f t="shared" si="9"/>
-        <v>0.42374674182683031</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+        <v>14.958133387836618</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -2815,15 +2991,19 @@
         <v>7.4626865671641792E-4</v>
       </c>
       <c r="N44">
+        <f t="shared" si="9"/>
+        <v>0.1</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="10"/>
+        <v>0.56343624873074227</v>
+      </c>
+      <c r="P44">
         <f t="shared" si="8"/>
-        <v>0.1</v>
-      </c>
-      <c r="O44">
-        <f t="shared" si="9"/>
-        <v>0.56343624873074227</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+        <v>14.958133387836618</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -2870,15 +3050,19 @@
         <v>1.4925373134328358E-3</v>
       </c>
       <c r="N45">
+        <f t="shared" si="9"/>
+        <v>0.2</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="10"/>
+        <v>0.62968276871797213</v>
+      </c>
+      <c r="P45">
         <f t="shared" si="8"/>
-        <v>0.2</v>
-      </c>
-      <c r="O45">
-        <f t="shared" si="9"/>
-        <v>0.62968276871797213</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+        <v>14.958133387836618</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -2925,15 +3109,19 @@
         <v>2.2388059701492534E-3</v>
       </c>
       <c r="N46">
+        <f t="shared" si="9"/>
+        <v>0.3</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="10"/>
+        <v>0.72946250659660483</v>
+      </c>
+      <c r="P46">
         <f t="shared" si="8"/>
-        <v>0.3</v>
-      </c>
-      <c r="O46">
-        <f t="shared" si="9"/>
-        <v>0.72946250659660483</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+        <v>14.958133387836618</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -2980,15 +3168,19 @@
         <v>3.7313432835820895E-3</v>
       </c>
       <c r="N47">
+        <f t="shared" si="9"/>
+        <v>0.5</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="10"/>
+        <v>1.0194548448671232</v>
+      </c>
+      <c r="P47">
         <f t="shared" si="8"/>
-        <v>0.5</v>
-      </c>
-      <c r="O47">
-        <f t="shared" si="9"/>
-        <v>1.0194548448671232</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+        <v>14.958133387836618</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -3035,15 +3227,19 @@
         <v>0</v>
       </c>
       <c r="N48">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="10"/>
+        <v>0.45465008158603881</v>
+      </c>
+      <c r="P48">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O48">
-        <f t="shared" si="9"/>
-        <v>0.45465008158603881</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+        <v>11.952498867965263</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -3090,15 +3286,19 @@
         <v>0</v>
       </c>
       <c r="N49">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="10"/>
+        <v>0.42936126853571749</v>
+      </c>
+      <c r="P49">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O49">
-        <f t="shared" si="9"/>
-        <v>0.42936126853571749</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+        <v>11.120585908490421</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -3145,15 +3345,19 @@
         <v>0</v>
       </c>
       <c r="N50">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="10"/>
+        <v>0.31566067804125103</v>
+      </c>
+      <c r="P50">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O50">
-        <f t="shared" si="9"/>
-        <v>0.31566067804125103</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+        <v>50.753275974150199</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -3200,15 +3404,19 @@
         <v>0</v>
       </c>
       <c r="N51">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <f t="shared" si="10"/>
+        <v>0.35041052771368864</v>
+      </c>
+      <c r="P51">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O51">
-        <f t="shared" si="9"/>
-        <v>0.35041052771368864</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+        <v>43.737847356588375</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -3255,15 +3463,19 @@
         <v>0</v>
       </c>
       <c r="N52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <f t="shared" si="10"/>
+        <v>0.40757768550755824</v>
+      </c>
+      <c r="P52">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O52">
-        <f t="shared" si="9"/>
-        <v>0.40757768550755824</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+        <v>33.378224538473546</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -3310,15 +3522,19 @@
         <v>0</v>
       </c>
       <c r="N53">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <f t="shared" si="10"/>
+        <v>0.44251078792217691</v>
+      </c>
+      <c r="P53">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O53">
-        <f t="shared" si="9"/>
-        <v>0.44251078792217691</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+        <v>27.553117280827269</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -3365,15 +3581,19 @@
         <v>0</v>
       </c>
       <c r="N54">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <f t="shared" si="10"/>
+        <v>0.36547389838320055</v>
+      </c>
+      <c r="P54">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O54">
-        <f t="shared" si="9"/>
-        <v>0.36547389838320055</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+        <v>27.553117280827269</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -3420,15 +3640,19 @@
         <v>0</v>
       </c>
       <c r="N55">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <f t="shared" si="10"/>
+        <v>0.40847148953930118</v>
+      </c>
+      <c r="P55">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O55">
-        <f t="shared" si="9"/>
-        <v>0.40847148953930118</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+        <v>23.744556675332493</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -3475,15 +3699,19 @@
         <v>0</v>
       </c>
       <c r="N56">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <f t="shared" si="10"/>
+        <v>0.47982415158017638</v>
+      </c>
+      <c r="P56">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O56">
-        <f t="shared" si="9"/>
-        <v>0.47982415158017638</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+        <v>17.357376226168235</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -3530,15 +3758,19 @@
         <v>0</v>
       </c>
       <c r="N57">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <f t="shared" si="10"/>
+        <v>0.48365901847556692</v>
+      </c>
+      <c r="P57">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O57">
-        <f t="shared" si="9"/>
-        <v>0.48365901847556692</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+        <v>14.958133387836618</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -3585,15 +3817,19 @@
         <v>0</v>
       </c>
       <c r="N58">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <f t="shared" si="10"/>
+        <v>0.47845609472533956</v>
+      </c>
+      <c r="P58">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O58">
-        <f t="shared" si="9"/>
-        <v>0.47845609472533956</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+        <v>10.934461839147092</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -3640,15 +3876,19 @@
         <v>0</v>
       </c>
       <c r="N59">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <f t="shared" si="10"/>
+        <v>0.2833349106671712</v>
+      </c>
+      <c r="P59">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O59">
-        <f t="shared" si="9"/>
-        <v>0.2833349106671712</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+        <v>43.737847356588375</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -3695,15 +3935,19 @@
         <v>1.4925373134328358E-4</v>
       </c>
       <c r="N60">
+        <f t="shared" si="9"/>
+        <v>0.1</v>
+      </c>
+      <c r="O60">
+        <f t="shared" si="10"/>
+        <v>0.3046329148154085</v>
+      </c>
+      <c r="P60">
         <f t="shared" si="8"/>
-        <v>0.1</v>
-      </c>
-      <c r="O60">
-        <f t="shared" si="9"/>
-        <v>0.3046329148154085</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+        <v>43.737847356588375</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -3750,15 +3994,19 @@
         <v>2.9850746268656717E-4</v>
       </c>
       <c r="N61">
+        <f t="shared" si="9"/>
+        <v>0.2</v>
+      </c>
+      <c r="O61">
+        <f t="shared" si="10"/>
+        <v>0.32873961111702593</v>
+      </c>
+      <c r="P61">
         <f t="shared" si="8"/>
-        <v>0.2</v>
-      </c>
-      <c r="O61">
-        <f t="shared" si="9"/>
-        <v>0.32873961111702593</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+        <v>43.737847356588375</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -3805,15 +4053,19 @@
         <v>7.4626865671641792E-4</v>
       </c>
       <c r="N62">
+        <f t="shared" si="9"/>
+        <v>0.5</v>
+      </c>
+      <c r="O62">
+        <f t="shared" si="10"/>
+        <v>0.44886628133814105</v>
+      </c>
+      <c r="P62">
         <f t="shared" si="8"/>
-        <v>0.5</v>
-      </c>
-      <c r="O62">
-        <f t="shared" si="9"/>
-        <v>0.44886628133814105</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+        <v>43.737847356588375</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -3860,15 +4112,19 @@
         <v>0</v>
       </c>
       <c r="N63">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O63">
+        <f t="shared" si="10"/>
+        <v>0.30272624101529028</v>
+      </c>
+      <c r="P63">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O63">
-        <f t="shared" si="9"/>
-        <v>0.30272624101529028</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+        <v>27.553117280827269</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -3915,15 +4171,19 @@
         <v>0</v>
       </c>
       <c r="N64">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <f t="shared" si="10"/>
+        <v>0.34066555533082993</v>
+      </c>
+      <c r="P64">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O64">
-        <f t="shared" si="9"/>
-        <v>0.34066555533082993</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+        <v>21.026963852070217</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -3970,15 +4230,19 @@
         <v>0</v>
       </c>
       <c r="N65">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <f t="shared" si="10"/>
+        <v>0.34597456968633589</v>
+      </c>
+      <c r="P65">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O65">
-        <f t="shared" si="9"/>
-        <v>0.34597456968633589</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+        <v>21.026963852070217</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -4025,15 +4289,19 @@
         <v>4.477611940298507E-4</v>
       </c>
       <c r="N66">
+        <f t="shared" si="9"/>
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="O66">
+        <f t="shared" si="10"/>
+        <v>0.38734735512843016</v>
+      </c>
+      <c r="P66">
         <f t="shared" si="8"/>
-        <v>9.9999999999999992E-2</v>
-      </c>
-      <c r="O66">
-        <f t="shared" si="9"/>
-        <v>0.38734735512843016</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+        <v>21.026963852070217</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -4065,7 +4333,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="J67">
-        <f t="shared" ref="J67:J130" si="10">I67/0.67</f>
+        <f t="shared" ref="J67:J130" si="11">I67/0.67</f>
         <v>4.4776119402985069E-3</v>
       </c>
       <c r="K67">
@@ -4080,15 +4348,19 @@
         <v>8.9552238805970139E-4</v>
       </c>
       <c r="N67">
-        <f t="shared" ref="N67:N98" si="11">L67/I67</f>
+        <f t="shared" ref="N67:N98" si="12">L67/I67</f>
         <v>0.19999999999999998</v>
       </c>
       <c r="O67">
-        <f t="shared" ref="O67:O98" si="12">J67/SQRT(9.81*C67*E67^3)</f>
+        <f t="shared" ref="O67:O98" si="13">J67/SQRT(9.81*C67*E67^3)</f>
         <v>0.43372854894780377</v>
       </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P67">
+        <f t="shared" si="8"/>
+        <v>21.026963852070217</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -4109,41 +4381,45 @@
         <v>7.2</v>
       </c>
       <c r="G68">
-        <f t="shared" ref="G68:G131" si="13">F68/100</f>
+        <f t="shared" ref="G68:G131" si="14">F68/100</f>
         <v>7.2000000000000008E-2</v>
       </c>
       <c r="H68">
         <v>3</v>
       </c>
       <c r="I68">
-        <f t="shared" ref="I68:I131" si="14">H68/1000</f>
+        <f t="shared" ref="I68:I131" si="15">H68/1000</f>
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="J68">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.4776119402985069E-3</v>
       </c>
       <c r="K68">
         <v>0.9</v>
       </c>
       <c r="L68">
-        <f t="shared" ref="L68:L131" si="15">K68/1000</f>
+        <f t="shared" ref="L68:L131" si="16">K68/1000</f>
         <v>8.9999999999999998E-4</v>
       </c>
       <c r="M68">
-        <f t="shared" ref="M68:M131" si="16">L68/0.67</f>
+        <f t="shared" ref="M68:M131" si="17">L68/0.67</f>
         <v>1.3432835820895521E-3</v>
       </c>
       <c r="N68">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.3</v>
       </c>
       <c r="O68">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.48539920432550965</v>
       </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P68">
+        <f t="shared" ref="P68:P131" si="18">(C68*9.81)^(1/3)/(J68^(2/3))</f>
+        <v>21.026963852070217</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -4164,41 +4440,45 @@
         <v>5.85</v>
       </c>
       <c r="G69">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>5.8499999999999996E-2</v>
       </c>
       <c r="H69">
         <v>3</v>
       </c>
       <c r="I69">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="J69">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.4776119402985069E-3</v>
       </c>
       <c r="K69">
         <v>1.5</v>
       </c>
       <c r="L69">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.5E-3</v>
       </c>
       <c r="M69">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2.2388059701492534E-3</v>
       </c>
       <c r="N69">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.5</v>
       </c>
       <c r="O69">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.62584258762680234</v>
       </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P69">
+        <f t="shared" si="18"/>
+        <v>21.026963852070217</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -4219,41 +4499,45 @@
         <v>10.25</v>
       </c>
       <c r="G70">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.10249999999999999</v>
       </c>
       <c r="H70">
         <v>4</v>
       </c>
       <c r="I70">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="J70">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5.9701492537313433E-3</v>
       </c>
       <c r="K70">
         <v>0</v>
       </c>
       <c r="L70">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M70">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N70">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O70">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.36164302406732862</v>
       </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P70">
+        <f t="shared" si="18"/>
+        <v>17.357376226168235</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -4274,41 +4558,45 @@
         <v>12.2</v>
       </c>
       <c r="G71">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.122</v>
       </c>
       <c r="H71">
         <v>5</v>
       </c>
       <c r="I71">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="J71">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7.462686567164179E-3</v>
       </c>
       <c r="K71">
         <v>0</v>
       </c>
       <c r="L71">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M71">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N71">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O71">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.3583934633394395</v>
       </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P71">
+        <f t="shared" si="18"/>
+        <v>14.958133387836618</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -4329,41 +4617,45 @@
         <v>11.65</v>
       </c>
       <c r="G72">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.11650000000000001</v>
       </c>
       <c r="H72">
         <v>5</v>
       </c>
       <c r="I72">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="J72">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7.462686567164179E-3</v>
       </c>
       <c r="K72">
         <v>0</v>
       </c>
       <c r="L72">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M72">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N72">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O72">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.36456666380439762</v>
       </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P72">
+        <f t="shared" si="18"/>
+        <v>14.958133387836618</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -4377,48 +4669,52 @@
         <v>12.2</v>
       </c>
       <c r="E73">
-        <f t="shared" ref="E73:E136" si="17">D73/100</f>
+        <f t="shared" ref="E73:E136" si="19">D73/100</f>
         <v>0.122</v>
       </c>
       <c r="F73">
         <v>10.9</v>
       </c>
       <c r="G73">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.109</v>
       </c>
       <c r="H73">
         <v>5</v>
       </c>
       <c r="I73">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="J73">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7.462686567164179E-3</v>
       </c>
       <c r="K73">
         <v>0.5</v>
       </c>
       <c r="L73">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="M73">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>7.4626865671641792E-4</v>
       </c>
       <c r="N73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.1</v>
       </c>
       <c r="O73">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.40564315458529049</v>
       </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P73">
+        <f t="shared" si="18"/>
+        <v>14.958133387836618</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -4432,488 +4728,524 @@
         <v>11.05</v>
       </c>
       <c r="E74">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.1105</v>
       </c>
       <c r="F74">
         <v>9.9</v>
       </c>
       <c r="G74">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.9000000000000005E-2</v>
       </c>
       <c r="H74">
         <v>5</v>
       </c>
       <c r="I74">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="J74">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7.462686567164179E-3</v>
       </c>
       <c r="K74">
         <v>1</v>
       </c>
       <c r="L74">
+        <f t="shared" si="16"/>
+        <v>1E-3</v>
+      </c>
+      <c r="M74">
+        <f t="shared" si="17"/>
+        <v>1.4925373134328358E-3</v>
+      </c>
+      <c r="N74">
+        <f t="shared" si="12"/>
+        <v>0.2</v>
+      </c>
+      <c r="O74">
+        <f t="shared" si="13"/>
+        <v>0.47058760121509802</v>
+      </c>
+      <c r="P74">
+        <f t="shared" si="18"/>
+        <v>14.958133387836618</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" s="1">
+        <v>3.1E-2</v>
+      </c>
+      <c r="C75">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="D75">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="19"/>
+        <v>0.10050000000000001</v>
+      </c>
+      <c r="F75">
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="14"/>
+        <v>9.0500000000000011E-2</v>
+      </c>
+      <c r="H75">
+        <v>5</v>
+      </c>
+      <c r="I75">
+        <f t="shared" si="15"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="11"/>
+        <v>7.462686567164179E-3</v>
+      </c>
+      <c r="K75">
+        <v>1.5</v>
+      </c>
+      <c r="L75">
+        <f t="shared" si="16"/>
+        <v>1.5E-3</v>
+      </c>
+      <c r="M75">
+        <f t="shared" si="17"/>
+        <v>2.2388059701492534E-3</v>
+      </c>
+      <c r="N75">
+        <f t="shared" si="12"/>
+        <v>0.3</v>
+      </c>
+      <c r="O75">
+        <f t="shared" si="13"/>
+        <v>0.55741076626392616</v>
+      </c>
+      <c r="P75">
+        <f t="shared" si="18"/>
+        <v>14.690966544851843</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" s="1">
+        <v>3.1E-2</v>
+      </c>
+      <c r="C76">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="D76">
+        <v>9.1</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="19"/>
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="F76">
+        <v>8.1</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="14"/>
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="H76">
+        <v>5</v>
+      </c>
+      <c r="I76">
+        <f t="shared" si="15"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="11"/>
+        <v>7.462686567164179E-3</v>
+      </c>
+      <c r="K76">
+        <v>2.5</v>
+      </c>
+      <c r="L76">
+        <f t="shared" si="16"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="M76">
+        <f t="shared" si="17"/>
+        <v>3.7313432835820895E-3</v>
+      </c>
+      <c r="N76">
+        <f t="shared" si="12"/>
+        <v>0.5</v>
+      </c>
+      <c r="O76">
+        <f t="shared" si="13"/>
+        <v>0.64693754615222376</v>
+      </c>
+      <c r="P76">
+        <f t="shared" si="18"/>
+        <v>14.690966544851843</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" s="1">
+        <v>3.1E-2</v>
+      </c>
+      <c r="C77">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="D77">
+        <v>16.55</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="19"/>
+        <v>0.16550000000000001</v>
+      </c>
+      <c r="F77">
+        <v>15.05</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="14"/>
+        <v>0.15049999999999999</v>
+      </c>
+      <c r="H77">
+        <v>7</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="15"/>
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="11"/>
+        <v>1.0447761194029851E-2</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O77">
+        <f t="shared" si="13"/>
+        <v>0.36927974215942838</v>
+      </c>
+      <c r="P77">
+        <f t="shared" si="18"/>
+        <v>11.739015587295357</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" s="1">
+        <v>3.1E-2</v>
+      </c>
+      <c r="C78">
+        <v>1.9E-2</v>
+      </c>
+      <c r="D78">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="19"/>
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="F78">
+        <v>8.35</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="14"/>
+        <v>8.3499999999999991E-2</v>
+      </c>
+      <c r="H78">
+        <v>3</v>
+      </c>
+      <c r="I78">
+        <f t="shared" si="15"/>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="11"/>
+        <v>4.4776119402985069E-3</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O78">
+        <f t="shared" si="13"/>
+        <v>0.37166649051825873</v>
+      </c>
+      <c r="P78">
+        <f t="shared" si="18"/>
+        <v>21.026963852070217</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" s="1">
+        <v>3.1E-2</v>
+      </c>
+      <c r="C79">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="D79">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="19"/>
+        <v>2.0499999999999997E-2</v>
+      </c>
+      <c r="F79">
+        <v>1.9</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="14"/>
+        <v>1.9E-2</v>
+      </c>
+      <c r="H79">
+        <v>3</v>
+      </c>
+      <c r="I79">
+        <f t="shared" si="15"/>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J79">
+        <f t="shared" si="11"/>
+        <v>4.4776119402985069E-3</v>
+      </c>
+      <c r="K79">
+        <v>3</v>
+      </c>
+      <c r="L79">
+        <f t="shared" si="16"/>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="M79">
+        <f t="shared" si="17"/>
+        <v>4.4776119402985069E-3</v>
+      </c>
+      <c r="N79">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="O79">
+        <f t="shared" si="13"/>
+        <v>3.6303199659938405</v>
+      </c>
+      <c r="P79">
+        <f t="shared" si="18"/>
+        <v>20.651401781305378</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" s="1">
+        <v>3.1E-2</v>
+      </c>
+      <c r="C80">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="D80">
+        <v>7.8</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="19"/>
+        <v>7.8E-2</v>
+      </c>
+      <c r="F80">
+        <v>6.1</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="14"/>
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="H80">
+        <v>1</v>
+      </c>
+      <c r="I80">
         <f t="shared" si="15"/>
         <v>1E-3</v>
       </c>
-      <c r="M74">
+      <c r="J80">
+        <f t="shared" si="11"/>
+        <v>1.4925373134328358E-3</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
         <f t="shared" si="16"/>
-        <v>1.4925373134328358E-3</v>
-      </c>
-      <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O80">
+        <f t="shared" si="13"/>
+        <v>0.42900476462771753</v>
+      </c>
+      <c r="P80">
+        <f t="shared" si="18"/>
+        <v>22.538792929352116</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" s="1">
+        <v>3.1E-2</v>
+      </c>
+      <c r="C81">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="D81">
+        <v>12.5</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="19"/>
+        <v>0.125</v>
+      </c>
+      <c r="F81">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="14"/>
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="H81">
+        <v>2</v>
+      </c>
+      <c r="I81">
+        <f t="shared" si="15"/>
+        <v>2E-3</v>
+      </c>
+      <c r="J81">
         <f t="shared" si="11"/>
-        <v>0.2</v>
-      </c>
-      <c r="O74">
+        <v>2.9850746268656717E-3</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="N81">
         <f t="shared" si="12"/>
-        <v>0.47058760121509802</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A75" s="1">
-        <v>73</v>
-      </c>
-      <c r="B75" s="1">
+        <v>0</v>
+      </c>
+      <c r="O81">
+        <f t="shared" si="13"/>
+        <v>0.42293049023829249</v>
+      </c>
+      <c r="P81">
+        <f t="shared" si="18"/>
+        <v>14.198549825456235</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" s="1">
         <v>3.1E-2</v>
       </c>
-      <c r="C75">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="D75">
-        <v>10.050000000000001</v>
-      </c>
-      <c r="E75">
-        <f t="shared" si="17"/>
-        <v>0.10050000000000001</v>
-      </c>
-      <c r="F75">
-        <v>9.0500000000000007</v>
-      </c>
-      <c r="G75">
-        <f t="shared" si="13"/>
-        <v>9.0500000000000011E-2</v>
-      </c>
-      <c r="H75">
-        <v>5</v>
-      </c>
-      <c r="I75">
+      <c r="C82">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="D82">
+        <v>15.25</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="19"/>
+        <v>0.1525</v>
+      </c>
+      <c r="F82">
+        <v>12.1</v>
+      </c>
+      <c r="G82">
         <f t="shared" si="14"/>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J75">
-        <f t="shared" si="10"/>
-        <v>7.462686567164179E-3</v>
-      </c>
-      <c r="K75">
-        <v>1.5</v>
-      </c>
-      <c r="L75">
-        <f t="shared" si="15"/>
-        <v>1.5E-3</v>
-      </c>
-      <c r="M75">
-        <f t="shared" si="16"/>
-        <v>2.2388059701492534E-3</v>
-      </c>
-      <c r="N75">
-        <f t="shared" si="11"/>
-        <v>0.3</v>
-      </c>
-      <c r="O75">
-        <f t="shared" si="12"/>
-        <v>0.55741076626392616</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A76" s="1">
-        <v>74</v>
-      </c>
-      <c r="B76" s="1">
-        <v>3.1E-2</v>
-      </c>
-      <c r="C76">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="D76">
-        <v>9.1</v>
-      </c>
-      <c r="E76">
-        <f t="shared" si="17"/>
-        <v>9.0999999999999998E-2</v>
-      </c>
-      <c r="F76">
-        <v>8.1</v>
-      </c>
-      <c r="G76">
-        <f t="shared" si="13"/>
-        <v>8.1000000000000003E-2</v>
-      </c>
-      <c r="H76">
-        <v>5</v>
-      </c>
-      <c r="I76">
-        <f t="shared" si="14"/>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J76">
-        <f t="shared" si="10"/>
-        <v>7.462686567164179E-3</v>
-      </c>
-      <c r="K76">
-        <v>2.5</v>
-      </c>
-      <c r="L76">
-        <f t="shared" si="15"/>
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="M76">
-        <f t="shared" si="16"/>
-        <v>3.7313432835820895E-3</v>
-      </c>
-      <c r="N76">
-        <f t="shared" si="11"/>
-        <v>0.5</v>
-      </c>
-      <c r="O76">
-        <f t="shared" si="12"/>
-        <v>0.64693754615222376</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A77" s="1">
-        <v>75</v>
-      </c>
-      <c r="B77" s="1">
-        <v>3.1E-2</v>
-      </c>
-      <c r="C77">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="D77">
-        <v>16.55</v>
-      </c>
-      <c r="E77">
-        <f t="shared" si="17"/>
-        <v>0.16550000000000001</v>
-      </c>
-      <c r="F77">
-        <v>15.05</v>
-      </c>
-      <c r="G77">
-        <f t="shared" si="13"/>
-        <v>0.15049999999999999</v>
-      </c>
-      <c r="H77">
-        <v>7</v>
-      </c>
-      <c r="I77">
-        <f t="shared" si="14"/>
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="J77">
-        <f t="shared" si="10"/>
-        <v>1.0447761194029851E-2</v>
-      </c>
-      <c r="K77">
-        <v>0</v>
-      </c>
-      <c r="L77">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="M77">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="N77">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="O77">
-        <f t="shared" si="12"/>
-        <v>0.36927974215942838</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A78" s="1">
-        <v>76</v>
-      </c>
-      <c r="B78" s="1">
-        <v>3.1E-2</v>
-      </c>
-      <c r="C78">
-        <v>1.9E-2</v>
-      </c>
-      <c r="D78">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="E78">
-        <f t="shared" si="17"/>
-        <v>9.1999999999999998E-2</v>
-      </c>
-      <c r="F78">
-        <v>8.35</v>
-      </c>
-      <c r="G78">
-        <f t="shared" si="13"/>
-        <v>8.3499999999999991E-2</v>
-      </c>
-      <c r="H78">
+        <v>0.121</v>
+      </c>
+      <c r="H82">
         <v>3</v>
       </c>
-      <c r="I78">
-        <f t="shared" si="14"/>
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="J78">
-        <f t="shared" si="10"/>
-        <v>4.4776119402985069E-3</v>
-      </c>
-      <c r="K78">
-        <v>0</v>
-      </c>
-      <c r="L78">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="M78">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="N78">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="O78">
-        <f t="shared" si="12"/>
-        <v>0.37166649051825873</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A79" s="1">
-        <v>77</v>
-      </c>
-      <c r="B79" s="1">
-        <v>3.1E-2</v>
-      </c>
-      <c r="C79">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="D79">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="E79">
-        <f t="shared" si="17"/>
-        <v>2.0499999999999997E-2</v>
-      </c>
-      <c r="F79">
-        <v>1.9</v>
-      </c>
-      <c r="G79">
-        <f t="shared" si="13"/>
-        <v>1.9E-2</v>
-      </c>
-      <c r="H79">
-        <v>3</v>
-      </c>
-      <c r="I79">
-        <f t="shared" si="14"/>
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="J79">
-        <f t="shared" si="10"/>
-        <v>4.4776119402985069E-3</v>
-      </c>
-      <c r="K79">
-        <v>3</v>
-      </c>
-      <c r="L79">
+      <c r="I82">
         <f t="shared" si="15"/>
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="M79">
+      <c r="J82">
+        <f t="shared" si="11"/>
+        <v>4.4776119402985069E-3</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
         <f t="shared" si="16"/>
-        <v>4.4776119402985069E-3</v>
-      </c>
-      <c r="N79">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="O79">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="N82">
         <f t="shared" si="12"/>
-        <v>3.6303199659938405</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A80" s="1">
-        <v>78</v>
-      </c>
-      <c r="B80" s="1">
-        <v>3.1E-2</v>
-      </c>
-      <c r="C80">
-        <v>2.5999999999999999E-3</v>
-      </c>
-      <c r="D80">
-        <v>7.8</v>
-      </c>
-      <c r="E80">
-        <f t="shared" si="17"/>
-        <v>7.8E-2</v>
-      </c>
-      <c r="F80">
-        <v>6.1</v>
-      </c>
-      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="O82">
         <f t="shared" si="13"/>
-        <v>6.0999999999999999E-2</v>
-      </c>
-      <c r="H80">
-        <v>1</v>
-      </c>
-      <c r="I80">
-        <f t="shared" si="14"/>
-        <v>1E-3</v>
-      </c>
-      <c r="J80">
-        <f t="shared" si="10"/>
-        <v>1.4925373134328358E-3</v>
-      </c>
-      <c r="K80">
-        <v>0</v>
-      </c>
-      <c r="L80">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="M80">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="N80">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="O80">
-        <f t="shared" si="12"/>
-        <v>0.42900476462771753</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A81" s="1">
-        <v>79</v>
-      </c>
-      <c r="B81" s="1">
-        <v>3.1E-2</v>
-      </c>
-      <c r="C81">
-        <v>2.5999999999999999E-3</v>
-      </c>
-      <c r="D81">
-        <v>12.5</v>
-      </c>
-      <c r="E81">
-        <f t="shared" si="17"/>
-        <v>0.125</v>
-      </c>
-      <c r="F81">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="G81">
-        <f t="shared" si="13"/>
-        <v>9.8000000000000004E-2</v>
-      </c>
-      <c r="H81">
-        <v>2</v>
-      </c>
-      <c r="I81">
-        <f t="shared" si="14"/>
-        <v>2E-3</v>
-      </c>
-      <c r="J81">
-        <f t="shared" si="10"/>
-        <v>2.9850746268656717E-3</v>
-      </c>
-      <c r="K81">
-        <v>0</v>
-      </c>
-      <c r="L81">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="M81">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="N81">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="O81">
-        <f t="shared" si="12"/>
-        <v>0.42293049023829249</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A82" s="1">
-        <v>80</v>
-      </c>
-      <c r="B82" s="1">
-        <v>3.1E-2</v>
-      </c>
-      <c r="C82">
-        <v>2.7000000000000001E-3</v>
-      </c>
-      <c r="D82">
-        <v>15.25</v>
-      </c>
-      <c r="E82">
-        <f t="shared" si="17"/>
-        <v>0.1525</v>
-      </c>
-      <c r="F82">
-        <v>12.1</v>
-      </c>
-      <c r="G82">
-        <f t="shared" si="13"/>
-        <v>0.121</v>
-      </c>
-      <c r="H82">
-        <v>3</v>
-      </c>
-      <c r="I82">
-        <f t="shared" si="14"/>
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="J82">
-        <f t="shared" si="10"/>
-        <v>4.4776119402985069E-3</v>
-      </c>
-      <c r="K82">
-        <v>0</v>
-      </c>
-      <c r="L82">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="M82">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="N82">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="O82">
-        <f t="shared" si="12"/>
         <v>0.46198226175018453</v>
       </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P82">
+        <f t="shared" si="18"/>
+        <v>10.972694534268598</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -4927,48 +5259,52 @@
         <v>18.55</v>
       </c>
       <c r="E83">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.1855</v>
       </c>
       <c r="F83">
         <v>15.25</v>
       </c>
       <c r="G83">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.1525</v>
       </c>
       <c r="H83">
         <v>4</v>
       </c>
       <c r="I83">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="J83">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5.9701492537313433E-3</v>
       </c>
       <c r="K83">
         <v>0</v>
       </c>
       <c r="L83">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M83">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N83">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O83">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.45087462938412032</v>
       </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P83">
+        <f t="shared" si="18"/>
+        <v>9.1682311416076541</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -4982,48 +5318,52 @@
         <v>21.7</v>
       </c>
       <c r="E84">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.217</v>
       </c>
       <c r="F84">
         <v>17</v>
       </c>
       <c r="G84">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.17</v>
       </c>
       <c r="H84">
         <v>5</v>
       </c>
       <c r="I84">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="J84">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7.462686567164179E-3</v>
       </c>
       <c r="K84">
         <v>0</v>
       </c>
       <c r="L84">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M84">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N84">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O84">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.445442941517116</v>
       </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P84">
+        <f t="shared" si="18"/>
+        <v>7.9009420870840597</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -5037,48 +5377,52 @@
         <v>27.15</v>
       </c>
       <c r="E85">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.27149999999999996</v>
       </c>
       <c r="F85">
         <v>22.05</v>
       </c>
       <c r="G85">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.2205</v>
       </c>
       <c r="H85">
         <v>7</v>
       </c>
       <c r="I85">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="J85">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.0447761194029851E-2</v>
       </c>
       <c r="K85">
         <v>0</v>
       </c>
       <c r="L85">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M85">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N85">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O85">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.47158933873797126</v>
       </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P85">
+        <f t="shared" si="18"/>
+        <v>6.07930847012386</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -5092,48 +5436,52 @@
         <v>8.4499999999999993</v>
       </c>
       <c r="E86">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>8.4499999999999992E-2</v>
       </c>
       <c r="F86">
         <v>7.15</v>
       </c>
       <c r="G86">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>7.1500000000000008E-2</v>
       </c>
       <c r="H86">
         <v>1</v>
       </c>
       <c r="I86">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1E-3</v>
       </c>
       <c r="J86">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.4925373134328358E-3</v>
       </c>
       <c r="K86">
         <v>0</v>
       </c>
       <c r="L86">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M86">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N86">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O86">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.37335652705181271</v>
       </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P86">
+        <f t="shared" si="18"/>
+        <v>22.824124396022142</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -5147,48 +5495,52 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="E87">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>8.0500000000000002E-2</v>
       </c>
       <c r="F87">
         <v>6.35</v>
       </c>
       <c r="G87">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>6.3500000000000001E-2</v>
       </c>
       <c r="H87">
         <v>1</v>
       </c>
       <c r="I87">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1E-3</v>
       </c>
       <c r="J87">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.4925373134328358E-3</v>
       </c>
       <c r="K87">
         <v>0.1</v>
       </c>
       <c r="L87">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1E-4</v>
       </c>
       <c r="M87">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.4925373134328358E-4</v>
       </c>
       <c r="N87">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.1</v>
       </c>
       <c r="O87">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.40917604390099821</v>
       </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P87">
+        <f t="shared" si="18"/>
+        <v>22.538792929352116</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -5202,48 +5554,52 @@
         <v>7.2</v>
       </c>
       <c r="E88">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>7.2000000000000008E-2</v>
       </c>
       <c r="F88">
         <v>5.5</v>
       </c>
       <c r="G88">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>5.5E-2</v>
       </c>
       <c r="H88">
         <v>1</v>
       </c>
       <c r="I88">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1E-3</v>
       </c>
       <c r="J88">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.4925373134328358E-3</v>
       </c>
       <c r="K88">
         <v>0.2</v>
       </c>
       <c r="L88">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="M88">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2.9850746268656717E-4</v>
       </c>
       <c r="N88">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.2</v>
       </c>
       <c r="O88">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.48373250907284904</v>
       </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P88">
+        <f t="shared" si="18"/>
+        <v>22.538792929352116</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -5257,48 +5613,52 @@
         <v>6.5</v>
       </c>
       <c r="E89">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F89">
         <v>4.8499999999999996</v>
       </c>
       <c r="G89">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4.8499999999999995E-2</v>
       </c>
       <c r="H89">
         <v>1</v>
       </c>
       <c r="I89">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1E-3</v>
       </c>
       <c r="J89">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.4925373134328358E-3</v>
       </c>
       <c r="K89">
         <v>0.3</v>
       </c>
       <c r="L89">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="M89">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>4.477611940298507E-4</v>
       </c>
       <c r="N89">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.3</v>
       </c>
       <c r="O89">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.54342753876786787</v>
       </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P89">
+        <f t="shared" si="18"/>
+        <v>23.102494811226368</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -5312,48 +5672,52 @@
         <v>5.45</v>
       </c>
       <c r="E90">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>5.45E-2</v>
       </c>
       <c r="F90">
         <v>4.2</v>
       </c>
       <c r="G90">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="H90">
         <v>1</v>
       </c>
       <c r="I90">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1E-3</v>
       </c>
       <c r="J90">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.4925373134328358E-3</v>
       </c>
       <c r="K90">
         <v>0.5</v>
       </c>
       <c r="L90">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="M90">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>7.4626865671641792E-4</v>
       </c>
       <c r="N90">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.5</v>
       </c>
       <c r="O90">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.7207988052531471</v>
       </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P90">
+        <f t="shared" si="18"/>
+        <v>22.824124396022142</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -5367,48 +5731,52 @@
         <v>12.05</v>
       </c>
       <c r="E91">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.12050000000000001</v>
       </c>
       <c r="F91">
         <v>9.1</v>
       </c>
       <c r="G91">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.0999999999999998E-2</v>
       </c>
       <c r="H91">
         <v>2</v>
       </c>
       <c r="I91">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2E-3</v>
       </c>
       <c r="J91">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.9850746268656717E-3</v>
       </c>
       <c r="K91">
         <v>0</v>
       </c>
       <c r="L91">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M91">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N91">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O91">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.43848852926158199</v>
       </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P91">
+        <f t="shared" si="18"/>
+        <v>14.378297385983705</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -5422,48 +5790,52 @@
         <v>15.75</v>
       </c>
       <c r="E92">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.1575</v>
       </c>
       <c r="F92">
         <v>12.65</v>
       </c>
       <c r="G92">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.1265</v>
       </c>
       <c r="H92">
         <v>3</v>
       </c>
       <c r="I92">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="J92">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.4776119402985069E-3</v>
       </c>
       <c r="K92">
         <v>0</v>
       </c>
       <c r="L92">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M92">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N92">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O92">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.44015863786577697</v>
       </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P92">
+        <f t="shared" si="18"/>
+        <v>10.972694534268598</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -5477,48 +5849,52 @@
         <v>14.1</v>
       </c>
       <c r="E93">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.14099999999999999</v>
       </c>
       <c r="F93">
         <v>10.199999999999999</v>
       </c>
       <c r="G93">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.10199999999999999</v>
       </c>
       <c r="H93">
         <v>3</v>
       </c>
       <c r="I93">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="J93">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.4776119402985069E-3</v>
       </c>
       <c r="K93">
         <v>0.3</v>
       </c>
       <c r="L93">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="M93">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>4.477611940298507E-4</v>
       </c>
       <c r="N93">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>9.9999999999999992E-2</v>
       </c>
       <c r="O93">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.51963859190271355</v>
       </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P93">
+        <f t="shared" si="18"/>
+        <v>10.972694534268598</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -5532,48 +5908,52 @@
         <v>13.05</v>
       </c>
       <c r="E94">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.1305</v>
       </c>
       <c r="F94">
         <v>9.75</v>
       </c>
       <c r="G94">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.7500000000000003E-2</v>
       </c>
       <c r="H94">
         <v>3</v>
       </c>
       <c r="I94">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="J94">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.4776119402985069E-3</v>
       </c>
       <c r="K94">
         <v>0.6</v>
       </c>
       <c r="L94">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>5.9999999999999995E-4</v>
       </c>
       <c r="M94">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8.9552238805970139E-4</v>
       </c>
       <c r="N94">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.19999999999999998</v>
       </c>
       <c r="O94">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.58359867706374169</v>
       </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P94">
+        <f t="shared" si="18"/>
+        <v>10.972694534268598</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -5587,48 +5967,52 @@
         <v>10.5</v>
       </c>
       <c r="E95">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.105</v>
       </c>
       <c r="F95">
         <v>8.8000000000000007</v>
       </c>
       <c r="G95">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>8.8000000000000009E-2</v>
       </c>
       <c r="H95">
         <v>3</v>
       </c>
       <c r="I95">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="J95">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.4776119402985069E-3</v>
       </c>
       <c r="K95">
         <v>1.5</v>
       </c>
       <c r="L95">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.5E-3</v>
       </c>
       <c r="M95">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2.2388059701492534E-3</v>
       </c>
       <c r="N95">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.5</v>
       </c>
       <c r="O95">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.80862305148722702</v>
       </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P95">
+        <f t="shared" si="18"/>
+        <v>10.972694534268598</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -5642,48 +6026,52 @@
         <v>22.7</v>
       </c>
       <c r="E96">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.22699999999999998</v>
       </c>
       <c r="F96">
         <v>16.649999999999999</v>
       </c>
       <c r="G96">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.16649999999999998</v>
       </c>
       <c r="H96">
         <v>5</v>
       </c>
       <c r="I96">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="J96">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7.462686567164179E-3</v>
       </c>
       <c r="K96">
         <v>0</v>
       </c>
       <c r="L96">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M96">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N96">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O96">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.43205122235051796</v>
       </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P96">
+        <f t="shared" si="18"/>
+        <v>7.7081587552637876</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -5697,48 +6085,52 @@
         <v>21.4</v>
       </c>
       <c r="E97">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.214</v>
       </c>
       <c r="F97">
         <v>16.2</v>
       </c>
       <c r="G97">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.16200000000000001</v>
       </c>
       <c r="H97">
         <v>5</v>
       </c>
       <c r="I97">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="J97">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7.462686567164179E-3</v>
       </c>
       <c r="K97">
         <v>0</v>
       </c>
       <c r="L97">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M97">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N97">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O97">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.49128603245236191</v>
       </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P97">
+        <f t="shared" si="18"/>
+        <v>7.505217489532062</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -5752,48 +6144,52 @@
         <v>19.850000000000001</v>
       </c>
       <c r="E98">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.19850000000000001</v>
       </c>
       <c r="F98">
         <v>13.55</v>
       </c>
       <c r="G98">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.13550000000000001</v>
       </c>
       <c r="H98">
         <v>5</v>
       </c>
       <c r="I98">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="J98">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7.462686567164179E-3</v>
       </c>
       <c r="K98">
         <v>0.5</v>
       </c>
       <c r="L98">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="M98">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>7.4626865671641792E-4</v>
       </c>
       <c r="N98">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.1</v>
       </c>
       <c r="O98">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.54993873512431279</v>
       </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P98">
+        <f t="shared" si="18"/>
+        <v>7.505217489532062</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -5807,213 +6203,229 @@
         <v>18.95</v>
       </c>
       <c r="E99">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.1895</v>
       </c>
       <c r="F99">
         <v>12.85</v>
       </c>
       <c r="G99">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.1285</v>
       </c>
       <c r="H99">
         <v>5</v>
       </c>
       <c r="I99">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="J99">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7.462686567164179E-3</v>
       </c>
       <c r="K99">
         <v>1</v>
       </c>
       <c r="L99">
+        <f t="shared" si="16"/>
+        <v>1E-3</v>
+      </c>
+      <c r="M99">
+        <f t="shared" si="17"/>
+        <v>1.4925373134328358E-3</v>
+      </c>
+      <c r="N99">
+        <f t="shared" ref="N99:N130" si="20">L99/I99</f>
+        <v>0.2</v>
+      </c>
+      <c r="O99">
+        <f t="shared" ref="O99:O130" si="21">J99/SQRT(9.81*C99*E99^3)</f>
+        <v>0.61579411775291837</v>
+      </c>
+      <c r="P99">
+        <f t="shared" si="18"/>
+        <v>7.2906641900781093</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" s="1">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="C100">
+        <v>1.9E-3</v>
+      </c>
+      <c r="D100">
+        <v>16.850000000000001</v>
+      </c>
+      <c r="E100">
+        <f t="shared" si="19"/>
+        <v>0.16850000000000001</v>
+      </c>
+      <c r="F100">
+        <v>13.45</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="14"/>
+        <v>0.13449999999999998</v>
+      </c>
+      <c r="H100">
+        <v>5</v>
+      </c>
+      <c r="I100">
+        <f t="shared" si="15"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J100">
+        <f t="shared" si="11"/>
+        <v>7.462686567164179E-3</v>
+      </c>
+      <c r="K100">
+        <v>1.5</v>
+      </c>
+      <c r="L100">
+        <f t="shared" si="16"/>
+        <v>1.5E-3</v>
+      </c>
+      <c r="M100">
+        <f t="shared" si="17"/>
+        <v>2.2388059701492534E-3</v>
+      </c>
+      <c r="N100">
+        <f t="shared" si="20"/>
+        <v>0.3</v>
+      </c>
+      <c r="O100">
+        <f t="shared" si="21"/>
+        <v>0.79028554730049927</v>
+      </c>
+      <c r="P100">
+        <f t="shared" si="18"/>
+        <v>6.9429504904672923</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101" s="1">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="C101">
+        <v>1.5E-3</v>
+      </c>
+      <c r="D101">
+        <v>15.75</v>
+      </c>
+      <c r="E101">
+        <f t="shared" si="19"/>
+        <v>0.1575</v>
+      </c>
+      <c r="F101">
+        <v>9.5</v>
+      </c>
+      <c r="G101">
+        <f t="shared" si="14"/>
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="H101">
+        <v>5</v>
+      </c>
+      <c r="I101">
+        <f t="shared" si="15"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J101">
+        <f t="shared" si="11"/>
+        <v>7.462686567164179E-3</v>
+      </c>
+      <c r="K101">
+        <v>2.5</v>
+      </c>
+      <c r="L101">
+        <f t="shared" si="16"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="M101">
+        <f t="shared" si="17"/>
+        <v>3.7313432835820895E-3</v>
+      </c>
+      <c r="N101">
+        <f t="shared" si="20"/>
+        <v>0.5</v>
+      </c>
+      <c r="O101">
+        <f t="shared" si="21"/>
+        <v>0.98422463515159031</v>
+      </c>
+      <c r="P101">
+        <f t="shared" si="18"/>
+        <v>6.4168706908385467</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102" s="1">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="C102">
+        <v>1.9E-2</v>
+      </c>
+      <c r="D102">
+        <v>7.05</v>
+      </c>
+      <c r="E102">
+        <f t="shared" si="19"/>
+        <v>7.0499999999999993E-2</v>
+      </c>
+      <c r="F102">
+        <v>6.7</v>
+      </c>
+      <c r="G102">
+        <f t="shared" si="14"/>
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="H102">
+        <v>1</v>
+      </c>
+      <c r="I102">
         <f t="shared" si="15"/>
         <v>1E-3</v>
       </c>
-      <c r="M99">
+      <c r="J102">
+        <f t="shared" si="11"/>
+        <v>1.4925373134328358E-3</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
         <f t="shared" si="16"/>
-        <v>1.4925373134328358E-3</v>
-      </c>
-      <c r="N99">
-        <f t="shared" ref="N99:N130" si="18">L99/I99</f>
-        <v>0.2</v>
-      </c>
-      <c r="O99">
-        <f t="shared" ref="O99:O130" si="19">J99/SQRT(9.81*C99*E99^3)</f>
-        <v>0.61579411775291837</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A100" s="1">
-        <v>98</v>
-      </c>
-      <c r="B100" s="1">
-        <v>6.0999999999999999E-2</v>
-      </c>
-      <c r="C100">
-        <v>1.9E-3</v>
-      </c>
-      <c r="D100">
-        <v>16.850000000000001</v>
-      </c>
-      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="M102">
         <f t="shared" si="17"/>
-        <v>0.16850000000000001</v>
-      </c>
-      <c r="F100">
-        <v>13.45</v>
-      </c>
-      <c r="G100">
-        <f t="shared" si="13"/>
-        <v>0.13449999999999998</v>
-      </c>
-      <c r="H100">
-        <v>5</v>
-      </c>
-      <c r="I100">
-        <f t="shared" si="14"/>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J100">
-        <f t="shared" si="10"/>
-        <v>7.462686567164179E-3</v>
-      </c>
-      <c r="K100">
-        <v>1.5</v>
-      </c>
-      <c r="L100">
-        <f t="shared" si="15"/>
-        <v>1.5E-3</v>
-      </c>
-      <c r="M100">
-        <f t="shared" si="16"/>
-        <v>2.2388059701492534E-3</v>
-      </c>
-      <c r="N100">
+        <v>0</v>
+      </c>
+      <c r="N102">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="O102">
+        <f t="shared" si="21"/>
+        <v>0.18468440205233244</v>
+      </c>
+      <c r="P102">
         <f t="shared" si="18"/>
-        <v>0.3</v>
-      </c>
-      <c r="O100">
-        <f t="shared" si="19"/>
-        <v>0.79028554730049927</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A101" s="1">
-        <v>99</v>
-      </c>
-      <c r="B101" s="1">
-        <v>6.0999999999999999E-2</v>
-      </c>
-      <c r="C101">
-        <v>1.5E-3</v>
-      </c>
-      <c r="D101">
-        <v>15.75</v>
-      </c>
-      <c r="E101">
-        <f t="shared" si="17"/>
-        <v>0.1575</v>
-      </c>
-      <c r="F101">
-        <v>9.5</v>
-      </c>
-      <c r="G101">
-        <f t="shared" si="13"/>
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="H101">
-        <v>5</v>
-      </c>
-      <c r="I101">
-        <f t="shared" si="14"/>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J101">
-        <f t="shared" si="10"/>
-        <v>7.462686567164179E-3</v>
-      </c>
-      <c r="K101">
-        <v>2.5</v>
-      </c>
-      <c r="L101">
-        <f t="shared" si="15"/>
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="M101">
-        <f t="shared" si="16"/>
-        <v>3.7313432835820895E-3</v>
-      </c>
-      <c r="N101">
-        <f t="shared" si="18"/>
-        <v>0.5</v>
-      </c>
-      <c r="O101">
-        <f t="shared" si="19"/>
-        <v>0.98422463515159031</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A102" s="1">
-        <v>100</v>
-      </c>
-      <c r="B102" s="1">
-        <v>6.0999999999999999E-2</v>
-      </c>
-      <c r="C102">
-        <v>1.9E-2</v>
-      </c>
-      <c r="D102">
-        <v>7.05</v>
-      </c>
-      <c r="E102">
-        <f t="shared" si="17"/>
-        <v>7.0499999999999993E-2</v>
-      </c>
-      <c r="F102">
-        <v>6.7</v>
-      </c>
-      <c r="G102">
-        <f t="shared" si="13"/>
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="H102">
-        <v>1</v>
-      </c>
-      <c r="I102">
-        <f t="shared" si="14"/>
-        <v>1E-3</v>
-      </c>
-      <c r="J102">
-        <f t="shared" si="10"/>
-        <v>1.4925373134328358E-3</v>
-      </c>
-      <c r="K102">
-        <v>0</v>
-      </c>
-      <c r="L102">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="M102">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="N102">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="O102">
-        <f t="shared" si="19"/>
-        <v>0.18468440205233244</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
+        <v>43.737847356588375</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -6027,48 +6439,52 @@
         <v>6.35</v>
       </c>
       <c r="E103">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>6.3500000000000001E-2</v>
       </c>
       <c r="F103">
         <v>6.1</v>
       </c>
       <c r="G103">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>6.0999999999999999E-2</v>
       </c>
       <c r="H103">
         <v>1</v>
       </c>
       <c r="I103">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1E-3</v>
       </c>
       <c r="J103">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.4925373134328358E-3</v>
       </c>
       <c r="K103">
         <v>0.1</v>
       </c>
       <c r="L103">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1E-4</v>
       </c>
       <c r="M103">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.4925373134328358E-4</v>
       </c>
       <c r="N103">
+        <f t="shared" si="20"/>
+        <v>0.1</v>
+      </c>
+      <c r="O103">
+        <f t="shared" si="21"/>
+        <v>0.21604951971352659</v>
+      </c>
+      <c r="P103">
         <f t="shared" si="18"/>
-        <v>0.1</v>
-      </c>
-      <c r="O103">
-        <f t="shared" si="19"/>
-        <v>0.21604951971352659</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
+        <v>43.737847356588375</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -6082,48 +6498,52 @@
         <v>5.35</v>
       </c>
       <c r="E104">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>5.3499999999999999E-2</v>
       </c>
       <c r="F104">
         <v>5.0999999999999996</v>
       </c>
       <c r="G104">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="H104">
         <v>1</v>
       </c>
       <c r="I104">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1E-3</v>
       </c>
       <c r="J104">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.4925373134328358E-3</v>
       </c>
       <c r="K104">
         <v>0.3</v>
       </c>
       <c r="L104">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="M104">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>4.477611940298507E-4</v>
       </c>
       <c r="N104">
+        <f t="shared" si="20"/>
+        <v>0.3</v>
+      </c>
+      <c r="O104">
+        <f t="shared" si="21"/>
+        <v>0.27937222078259866</v>
+      </c>
+      <c r="P104">
         <f t="shared" si="18"/>
-        <v>0.3</v>
-      </c>
-      <c r="O104">
-        <f t="shared" si="19"/>
-        <v>0.27937222078259866</v>
-      </c>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
+        <v>43.737847356588375</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -6137,48 +6557,52 @@
         <v>4.3</v>
       </c>
       <c r="E105">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>4.2999999999999997E-2</v>
       </c>
       <c r="F105">
         <v>4.2</v>
       </c>
       <c r="G105">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="H105">
         <v>1</v>
       </c>
       <c r="I105">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1E-3</v>
       </c>
       <c r="J105">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.4925373134328358E-3</v>
       </c>
       <c r="K105">
         <v>0.5</v>
       </c>
       <c r="L105">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="M105">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>7.4626865671641792E-4</v>
       </c>
       <c r="N105">
+        <f t="shared" si="20"/>
+        <v>0.5</v>
+      </c>
+      <c r="O105">
+        <f t="shared" si="21"/>
+        <v>0.38771375582929385</v>
+      </c>
+      <c r="P105">
         <f t="shared" si="18"/>
-        <v>0.5</v>
-      </c>
-      <c r="O105">
-        <f t="shared" si="19"/>
-        <v>0.38771375582929385</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
+        <v>43.737847356588375</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -6192,48 +6616,52 @@
         <v>9.6</v>
       </c>
       <c r="E106">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>9.6000000000000002E-2</v>
       </c>
       <c r="F106">
         <v>7.9</v>
       </c>
       <c r="G106">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>7.9000000000000001E-2</v>
       </c>
       <c r="H106">
         <v>3</v>
       </c>
       <c r="I106">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="J106">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.4776119402985069E-3</v>
       </c>
       <c r="K106">
         <v>0</v>
       </c>
       <c r="L106">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M106">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N106">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="O106">
+        <f t="shared" si="21"/>
+        <v>0.34868101239821631</v>
+      </c>
+      <c r="P106">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="O106">
-        <f t="shared" si="19"/>
-        <v>0.34868101239821631</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
+        <v>21.026963852070217</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -6247,48 +6675,52 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="E107">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>9.1999999999999998E-2</v>
       </c>
       <c r="F107">
         <v>7.85</v>
       </c>
       <c r="G107">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>7.85E-2</v>
       </c>
       <c r="H107">
         <v>3</v>
       </c>
       <c r="I107">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="J107">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.4776119402985069E-3</v>
       </c>
       <c r="K107">
         <v>0</v>
       </c>
       <c r="L107">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M107">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N107">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="O107">
+        <f t="shared" si="21"/>
+        <v>0.37166649051825873</v>
+      </c>
+      <c r="P107">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="O107">
-        <f t="shared" si="19"/>
-        <v>0.37166649051825873</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
+        <v>21.026963852070217</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -6302,48 +6734,52 @@
         <v>8.15</v>
       </c>
       <c r="E108">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>8.1500000000000003E-2</v>
       </c>
       <c r="F108">
         <v>6.55</v>
       </c>
       <c r="G108">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>6.5500000000000003E-2</v>
       </c>
       <c r="H108">
         <v>3</v>
       </c>
       <c r="I108">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="J108">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.4776119402985069E-3</v>
       </c>
       <c r="K108">
         <v>0.3</v>
       </c>
       <c r="L108">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="M108">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>4.477611940298507E-4</v>
       </c>
       <c r="N108">
+        <f t="shared" si="20"/>
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="O108">
+        <f t="shared" si="21"/>
+        <v>0.44575757770037644</v>
+      </c>
+      <c r="P108">
         <f t="shared" si="18"/>
-        <v>9.9999999999999992E-2</v>
-      </c>
-      <c r="O108">
-        <f t="shared" si="19"/>
-        <v>0.44575757770037644</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
+        <v>21.026963852070217</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -6357,48 +6793,52 @@
         <v>7.05</v>
       </c>
       <c r="E109">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>7.0499999999999993E-2</v>
       </c>
       <c r="F109">
         <v>5.55</v>
       </c>
       <c r="G109">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>5.5500000000000001E-2</v>
       </c>
       <c r="H109">
         <v>3</v>
       </c>
       <c r="I109">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="J109">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.4776119402985069E-3</v>
       </c>
       <c r="K109">
         <v>0.9</v>
       </c>
       <c r="L109">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>8.9999999999999998E-4</v>
       </c>
       <c r="M109">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.3432835820895521E-3</v>
       </c>
       <c r="N109">
+        <f t="shared" si="20"/>
+        <v>0.3</v>
+      </c>
+      <c r="O109">
+        <f t="shared" si="21"/>
+        <v>0.55405320615699727</v>
+      </c>
+      <c r="P109">
         <f t="shared" si="18"/>
-        <v>0.3</v>
-      </c>
-      <c r="O109">
-        <f t="shared" si="19"/>
-        <v>0.55405320615699727</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
+        <v>21.026963852070217</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -6412,48 +6852,52 @@
         <v>12.4</v>
       </c>
       <c r="E110">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.124</v>
       </c>
       <c r="F110">
         <v>10.15</v>
       </c>
       <c r="G110">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.10150000000000001</v>
       </c>
       <c r="H110">
         <v>5</v>
       </c>
       <c r="I110">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="J110">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7.462686567164179E-3</v>
       </c>
       <c r="K110">
         <v>0</v>
       </c>
       <c r="L110">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M110">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N110">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="O110">
+        <f t="shared" si="21"/>
+        <v>0.395868886691018</v>
+      </c>
+      <c r="P110">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="O110">
-        <f t="shared" si="19"/>
-        <v>0.395868886691018</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
+        <v>14.958133387836618</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -6467,48 +6911,52 @@
         <v>10.9</v>
       </c>
       <c r="E111">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.109</v>
       </c>
       <c r="F111">
         <v>8.35</v>
       </c>
       <c r="G111">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>8.3499999999999991E-2</v>
       </c>
       <c r="H111">
         <v>5</v>
       </c>
       <c r="I111">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="J111">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7.462686567164179E-3</v>
       </c>
       <c r="K111">
         <v>0.5</v>
       </c>
       <c r="L111">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="M111">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>7.4626865671641792E-4</v>
       </c>
       <c r="N111">
+        <f t="shared" si="20"/>
+        <v>0.1</v>
+      </c>
+      <c r="O111">
+        <f t="shared" si="21"/>
+        <v>0.4934972063249024</v>
+      </c>
+      <c r="P111">
         <f t="shared" si="18"/>
-        <v>0.1</v>
-      </c>
-      <c r="O111">
-        <f t="shared" si="19"/>
-        <v>0.4934972063249024</v>
-      </c>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
+        <v>14.690966544851843</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -6522,48 +6970,52 @@
         <v>9.35</v>
       </c>
       <c r="E112">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>9.35E-2</v>
       </c>
       <c r="F112">
         <v>7.35</v>
       </c>
       <c r="G112">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>7.3499999999999996E-2</v>
       </c>
       <c r="H112">
         <v>5</v>
       </c>
       <c r="I112">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="J112">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7.462686567164179E-3</v>
       </c>
       <c r="K112">
         <v>1.5</v>
       </c>
       <c r="L112">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.5E-3</v>
       </c>
       <c r="M112">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2.2388059701492534E-3</v>
       </c>
       <c r="N112">
+        <f t="shared" si="20"/>
+        <v>0.3</v>
+      </c>
+      <c r="O112">
+        <f t="shared" si="21"/>
+        <v>0.60459768670586711</v>
+      </c>
+      <c r="P112">
         <f t="shared" si="18"/>
-        <v>0.3</v>
-      </c>
-      <c r="O112">
-        <f t="shared" si="19"/>
-        <v>0.60459768670586711</v>
-      </c>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
+        <v>14.958133387836618</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -6577,48 +7029,52 @@
         <v>7.45</v>
       </c>
       <c r="E113">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>7.4499999999999997E-2</v>
       </c>
       <c r="F113">
         <v>6.15</v>
       </c>
       <c r="G113">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>6.1500000000000006E-2</v>
       </c>
       <c r="H113">
         <v>5</v>
       </c>
       <c r="I113">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="J113">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7.462686567164179E-3</v>
       </c>
       <c r="K113">
         <v>2.5</v>
       </c>
       <c r="L113">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="M113">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3.7313432835820895E-3</v>
       </c>
       <c r="N113">
+        <f t="shared" si="20"/>
+        <v>0.5</v>
+      </c>
+      <c r="O113">
+        <f t="shared" si="21"/>
+        <v>0.85005981920666496</v>
+      </c>
+      <c r="P113">
         <f t="shared" si="18"/>
-        <v>0.5</v>
-      </c>
-      <c r="O113">
-        <f t="shared" si="19"/>
-        <v>0.85005981920666496</v>
-      </c>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
+        <v>14.958133387836618</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -6632,48 +7088,52 @@
         <v>5.55</v>
       </c>
       <c r="E114">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>5.5500000000000001E-2</v>
       </c>
       <c r="F114">
         <v>5.0999999999999996</v>
       </c>
       <c r="G114">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="H114">
         <v>1</v>
       </c>
       <c r="I114">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1E-3</v>
       </c>
       <c r="J114">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.4925373134328358E-3</v>
       </c>
       <c r="K114">
         <v>0</v>
       </c>
       <c r="L114">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M114">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N114">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="O114">
+        <f t="shared" si="21"/>
+        <v>0.26440789485952465</v>
+      </c>
+      <c r="P114">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="O114">
-        <f t="shared" si="19"/>
-        <v>0.26440789485952465</v>
-      </c>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
+        <v>43.737847356588375</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -6687,48 +7147,52 @@
         <v>4.8</v>
       </c>
       <c r="E115">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="F115">
         <v>4.3499999999999996</v>
       </c>
       <c r="G115">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4.3499999999999997E-2</v>
       </c>
       <c r="H115">
         <v>1</v>
       </c>
       <c r="I115">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1E-3</v>
       </c>
       <c r="J115">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.4925373134328358E-3</v>
       </c>
       <c r="K115">
         <v>0.1</v>
       </c>
       <c r="L115">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1E-4</v>
       </c>
       <c r="M115">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.4925373134328358E-4</v>
       </c>
       <c r="N115">
+        <f t="shared" si="20"/>
+        <v>0.1</v>
+      </c>
+      <c r="O115">
+        <f t="shared" si="21"/>
+        <v>0.32873961111702593</v>
+      </c>
+      <c r="P115">
         <f t="shared" si="18"/>
-        <v>0.1</v>
-      </c>
-      <c r="O115">
-        <f t="shared" si="19"/>
-        <v>0.32873961111702593</v>
-      </c>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
+        <v>43.737847356588375</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -6742,48 +7206,52 @@
         <v>3.6</v>
       </c>
       <c r="E116">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>3.6000000000000004E-2</v>
       </c>
       <c r="F116">
         <v>3.05</v>
       </c>
       <c r="G116">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3.0499999999999999E-2</v>
       </c>
       <c r="H116">
         <v>1</v>
       </c>
       <c r="I116">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1E-3</v>
       </c>
       <c r="J116">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.4925373134328358E-3</v>
       </c>
       <c r="K116">
         <v>0.3</v>
       </c>
       <c r="L116">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="M116">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>4.477611940298507E-4</v>
       </c>
       <c r="N116">
+        <f t="shared" si="20"/>
+        <v>0.3</v>
+      </c>
+      <c r="O116">
+        <f t="shared" si="21"/>
+        <v>0.50612774125788751</v>
+      </c>
+      <c r="P116">
         <f t="shared" si="18"/>
-        <v>0.3</v>
-      </c>
-      <c r="O116">
-        <f t="shared" si="19"/>
-        <v>0.50612774125788751</v>
-      </c>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
+        <v>43.737847356588375</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -6797,48 +7265,52 @@
         <v>2.9</v>
       </c>
       <c r="E117">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2.8999999999999998E-2</v>
       </c>
       <c r="F117">
         <v>2.5</v>
       </c>
       <c r="G117">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="H117">
         <v>1</v>
       </c>
       <c r="I117">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1E-3</v>
       </c>
       <c r="J117">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.4925373134328358E-3</v>
       </c>
       <c r="K117">
         <v>0.5</v>
       </c>
       <c r="L117">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="M117">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>7.4626865671641792E-4</v>
       </c>
       <c r="N117">
+        <f t="shared" si="20"/>
+        <v>0.5</v>
+      </c>
+      <c r="O117">
+        <f t="shared" si="21"/>
+        <v>0.70003039337630701</v>
+      </c>
+      <c r="P117">
         <f t="shared" si="18"/>
-        <v>0.5</v>
-      </c>
-      <c r="O117">
-        <f t="shared" si="19"/>
-        <v>0.70003039337630701</v>
-      </c>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
+        <v>43.737847356588375</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -6852,48 +7324,52 @@
         <v>8.35</v>
       </c>
       <c r="E118">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>8.3499999999999991E-2</v>
       </c>
       <c r="F118">
         <v>6.7</v>
       </c>
       <c r="G118">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="H118">
         <v>3</v>
       </c>
       <c r="I118">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="J118">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.4776119402985069E-3</v>
       </c>
       <c r="K118">
         <v>0</v>
       </c>
       <c r="L118">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M118">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N118">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="O118">
+        <f t="shared" si="21"/>
+        <v>0.42983862135569167</v>
+      </c>
+      <c r="P118">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="O118">
-        <f t="shared" si="19"/>
-        <v>0.42983862135569167</v>
-      </c>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
+        <v>21.026963852070217</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -6907,48 +7383,52 @@
         <v>8.4</v>
       </c>
       <c r="E119">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="F119">
         <v>6.75</v>
       </c>
       <c r="G119">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>6.7500000000000004E-2</v>
       </c>
       <c r="H119">
         <v>3</v>
       </c>
       <c r="I119">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="J119">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.4776119402985069E-3</v>
       </c>
       <c r="K119">
         <v>0</v>
       </c>
       <c r="L119">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M119">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N119">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="O119">
+        <f t="shared" si="21"/>
+        <v>0.42600649327921714</v>
+      </c>
+      <c r="P119">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="O119">
-        <f t="shared" si="19"/>
-        <v>0.42600649327921714</v>
-      </c>
-    </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
+        <v>21.026963852070217</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -6962,48 +7442,52 @@
         <v>7.2</v>
       </c>
       <c r="E120">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>7.2000000000000008E-2</v>
       </c>
       <c r="F120">
         <v>5.35</v>
       </c>
       <c r="G120">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>5.3499999999999999E-2</v>
       </c>
       <c r="H120">
         <v>3</v>
       </c>
       <c r="I120">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="J120">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.4776119402985069E-3</v>
       </c>
       <c r="K120">
         <v>0.3</v>
       </c>
       <c r="L120">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="M120">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>4.477611940298507E-4</v>
       </c>
       <c r="N120">
+        <f t="shared" si="20"/>
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="O120">
+        <f t="shared" si="21"/>
+        <v>0.53682953698512381</v>
+      </c>
+      <c r="P120">
         <f t="shared" si="18"/>
-        <v>9.9999999999999992E-2</v>
-      </c>
-      <c r="O120">
-        <f t="shared" si="19"/>
-        <v>0.53682953698512381</v>
-      </c>
-    </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
+        <v>21.026963852070217</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -7017,48 +7501,52 @@
         <v>6.2</v>
       </c>
       <c r="E121">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>6.2E-2</v>
       </c>
       <c r="F121">
         <v>4.4000000000000004</v>
       </c>
       <c r="G121">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4.4000000000000004E-2</v>
       </c>
       <c r="H121">
         <v>3</v>
       </c>
       <c r="I121">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="J121">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.4776119402985069E-3</v>
       </c>
       <c r="K121">
         <v>0.9</v>
       </c>
       <c r="L121">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>8.9999999999999998E-4</v>
       </c>
       <c r="M121">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.3432835820895521E-3</v>
       </c>
       <c r="N121">
+        <f t="shared" si="20"/>
+        <v>0.3</v>
+      </c>
+      <c r="O121">
+        <f t="shared" si="21"/>
+        <v>0.6718117781759706</v>
+      </c>
+      <c r="P121">
         <f t="shared" si="18"/>
-        <v>0.3</v>
-      </c>
-      <c r="O121">
-        <f t="shared" si="19"/>
-        <v>0.6718117781759706</v>
-      </c>
-    </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
+        <v>21.026963852070217</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -7072,48 +7560,52 @@
         <v>11.4</v>
       </c>
       <c r="E122">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.114</v>
       </c>
       <c r="F122">
         <v>9.35</v>
       </c>
       <c r="G122">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.35E-2</v>
       </c>
       <c r="H122">
         <v>5</v>
       </c>
       <c r="I122">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="J122">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7.462686567164179E-3</v>
       </c>
       <c r="K122">
         <v>0</v>
       </c>
       <c r="L122">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M122">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N122">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="O122">
+        <f t="shared" si="21"/>
+        <v>0.44908300545160562</v>
+      </c>
+      <c r="P122">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="O122">
-        <f t="shared" si="19"/>
-        <v>0.44908300545160562</v>
-      </c>
-    </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
+        <v>14.958133387836618</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -7127,48 +7619,52 @@
         <v>9.9</v>
       </c>
       <c r="E123">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>9.9000000000000005E-2</v>
       </c>
       <c r="F123">
         <v>7.1</v>
       </c>
       <c r="G123">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>7.0999999999999994E-2</v>
       </c>
       <c r="H123">
         <v>5</v>
       </c>
       <c r="I123">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="J123">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7.462686567164179E-3</v>
       </c>
       <c r="K123">
         <v>0.5</v>
       </c>
       <c r="L123">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="M123">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>7.4626865671641792E-4</v>
       </c>
       <c r="N123">
+        <f t="shared" si="20"/>
+        <v>0.1</v>
+      </c>
+      <c r="O123">
+        <f t="shared" si="21"/>
+        <v>0.55492093016280775</v>
+      </c>
+      <c r="P123">
         <f t="shared" si="18"/>
-        <v>0.1</v>
-      </c>
-      <c r="O123">
-        <f t="shared" si="19"/>
-        <v>0.55492093016280775</v>
-      </c>
-    </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
+        <v>14.958133387836618</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -7182,48 +7678,52 @@
         <v>8.35</v>
       </c>
       <c r="E124">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>8.3499999999999991E-2</v>
       </c>
       <c r="F124">
         <v>6.1</v>
       </c>
       <c r="G124">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>6.0999999999999999E-2</v>
       </c>
       <c r="H124">
         <v>5</v>
       </c>
       <c r="I124">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="J124">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7.462686567164179E-3</v>
       </c>
       <c r="K124">
         <v>1.5</v>
       </c>
       <c r="L124">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.5E-3</v>
       </c>
       <c r="M124">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2.2388059701492534E-3</v>
       </c>
       <c r="N124">
+        <f t="shared" si="20"/>
+        <v>0.3</v>
+      </c>
+      <c r="O124">
+        <f t="shared" si="21"/>
+        <v>0.71639770225948618</v>
+      </c>
+      <c r="P124">
         <f t="shared" si="18"/>
-        <v>0.3</v>
-      </c>
-      <c r="O124">
-        <f t="shared" si="19"/>
-        <v>0.71639770225948618</v>
-      </c>
-    </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
+        <v>14.958133387836618</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -7237,48 +7737,52 @@
         <v>7.1</v>
       </c>
       <c r="E125">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>7.0999999999999994E-2</v>
       </c>
       <c r="F125">
         <v>5.25</v>
       </c>
       <c r="G125">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>5.2499999999999998E-2</v>
       </c>
       <c r="H125">
         <v>5</v>
       </c>
       <c r="I125">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="J125">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7.462686567164179E-3</v>
       </c>
       <c r="K125">
         <v>2.5</v>
       </c>
       <c r="L125">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="M125">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3.7313432835820895E-3</v>
       </c>
       <c r="N125">
+        <f t="shared" si="20"/>
+        <v>0.5</v>
+      </c>
+      <c r="O125">
+        <f t="shared" si="21"/>
+        <v>0.91368474595800131</v>
+      </c>
+      <c r="P125">
         <f t="shared" si="18"/>
-        <v>0.5</v>
-      </c>
-      <c r="O125">
-        <f t="shared" si="19"/>
-        <v>0.91368474595800131</v>
-      </c>
-    </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
+        <v>14.958133387836618</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -7292,48 +7796,52 @@
         <v>14.1</v>
       </c>
       <c r="E126">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.14099999999999999</v>
       </c>
       <c r="F126">
         <v>11.45</v>
       </c>
       <c r="G126">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.11449999999999999</v>
       </c>
       <c r="H126">
         <v>7</v>
       </c>
       <c r="I126">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="J126">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.0447761194029851E-2</v>
       </c>
       <c r="K126">
         <v>0</v>
       </c>
       <c r="L126">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M126">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N126">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="O126">
+        <f t="shared" si="21"/>
+        <v>0.45707057574705451</v>
+      </c>
+      <c r="P126">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="O126">
-        <f t="shared" si="19"/>
-        <v>0.45707057574705451</v>
-      </c>
-    </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
+        <v>11.952498867965263</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -7347,48 +7855,52 @@
         <v>15.45</v>
       </c>
       <c r="E127">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.1545</v>
       </c>
       <c r="F127">
         <v>12.75</v>
       </c>
       <c r="G127">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.1275</v>
       </c>
       <c r="H127">
         <v>7.7</v>
       </c>
       <c r="I127">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>7.7000000000000002E-3</v>
       </c>
       <c r="J127">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.1492537313432836E-2</v>
       </c>
       <c r="K127">
         <v>0</v>
       </c>
       <c r="L127">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M127">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N127">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="O127">
+        <f t="shared" si="21"/>
+        <v>0.43834079672264614</v>
+      </c>
+      <c r="P127">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="O127">
-        <f t="shared" si="19"/>
-        <v>0.43834079672264614</v>
-      </c>
-    </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
+        <v>11.216660828559343</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -7402,48 +7914,52 @@
         <v>6.65</v>
       </c>
       <c r="E128">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>6.6500000000000004E-2</v>
       </c>
       <c r="F128">
         <v>6.35</v>
       </c>
       <c r="G128">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>6.3500000000000001E-2</v>
       </c>
       <c r="H128">
         <v>1</v>
       </c>
       <c r="I128">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1E-3</v>
       </c>
       <c r="J128">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.4925373134328358E-3</v>
       </c>
       <c r="K128">
         <v>0</v>
       </c>
       <c r="L128">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M128">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N128">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="O128">
+        <f t="shared" si="21"/>
+        <v>0.20159577460900399</v>
+      </c>
+      <c r="P128">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="O128">
-        <f t="shared" si="19"/>
-        <v>0.20159577460900399</v>
-      </c>
-    </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
+        <v>43.737847356588375</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -7457,48 +7973,52 @@
         <v>6.05</v>
       </c>
       <c r="E129">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>6.0499999999999998E-2</v>
       </c>
       <c r="F129">
         <v>5.8</v>
       </c>
       <c r="G129">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>5.7999999999999996E-2</v>
       </c>
       <c r="H129">
         <v>1</v>
       </c>
       <c r="I129">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1E-3</v>
       </c>
       <c r="J129">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.4925373134328358E-3</v>
       </c>
       <c r="K129">
         <v>0.1</v>
       </c>
       <c r="L129">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1E-4</v>
       </c>
       <c r="M129">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.4925373134328358E-4</v>
       </c>
       <c r="N129">
+        <f t="shared" si="20"/>
+        <v>0.1</v>
+      </c>
+      <c r="O129">
+        <f t="shared" si="21"/>
+        <v>0.2323169145780852</v>
+      </c>
+      <c r="P129">
         <f t="shared" si="18"/>
-        <v>0.1</v>
-      </c>
-      <c r="O129">
-        <f t="shared" si="19"/>
-        <v>0.2323169145780852</v>
-      </c>
-    </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
+        <v>43.737847356588375</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -7512,48 +8032,52 @@
         <v>4.8499999999999996</v>
       </c>
       <c r="E130">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>4.8499999999999995E-2</v>
       </c>
       <c r="F130">
         <v>3.4</v>
       </c>
       <c r="G130">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="H130">
         <v>1</v>
       </c>
       <c r="I130">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1E-3</v>
       </c>
       <c r="J130">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.4925373134328358E-3</v>
       </c>
       <c r="K130">
         <v>0.3</v>
       </c>
       <c r="L130">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="M130">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>4.477611940298507E-4</v>
       </c>
       <c r="N130">
+        <f t="shared" si="20"/>
+        <v>0.3</v>
+      </c>
+      <c r="O130">
+        <f t="shared" si="21"/>
+        <v>0.32366913355049692</v>
+      </c>
+      <c r="P130">
         <f t="shared" si="18"/>
-        <v>0.3</v>
-      </c>
-      <c r="O130">
-        <f t="shared" si="19"/>
-        <v>0.32366913355049692</v>
-      </c>
-    </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
+        <v>43.737847356588375</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -7567,48 +8091,52 @@
         <v>3.95</v>
       </c>
       <c r="E131">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>3.95E-2</v>
       </c>
       <c r="F131">
         <v>3.75</v>
       </c>
       <c r="G131">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="H131">
         <v>1</v>
       </c>
       <c r="I131">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1E-3</v>
       </c>
       <c r="J131">
-        <f t="shared" ref="J131:J181" si="20">I131/0.67</f>
+        <f t="shared" ref="J131:J181" si="22">I131/0.67</f>
         <v>1.4925373134328358E-3</v>
       </c>
       <c r="K131">
         <v>0.5</v>
       </c>
       <c r="L131">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="M131">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>7.4626865671641792E-4</v>
       </c>
       <c r="N131">
-        <f t="shared" ref="N131:N162" si="21">L131/I131</f>
+        <f t="shared" ref="N131:N162" si="23">L131/I131</f>
         <v>0.5</v>
       </c>
       <c r="O131">
-        <f t="shared" ref="O131:O162" si="22">J131/SQRT(9.81*C131*E131^3)</f>
+        <f t="shared" ref="O131:O162" si="24">J131/SQRT(9.81*C131*E131^3)</f>
         <v>0.44037053183150515</v>
       </c>
-    </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P131">
+        <f t="shared" si="18"/>
+        <v>43.737847356588375</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -7622,48 +8150,52 @@
         <v>8.5500000000000007</v>
       </c>
       <c r="E132">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>8.5500000000000007E-2</v>
       </c>
       <c r="F132">
         <v>7.15</v>
       </c>
       <c r="G132">
-        <f t="shared" ref="G132:G181" si="23">F132/100</f>
+        <f t="shared" ref="G132:G181" si="25">F132/100</f>
         <v>7.1500000000000008E-2</v>
       </c>
       <c r="H132">
         <v>3</v>
       </c>
       <c r="I132">
-        <f t="shared" ref="I132:I181" si="24">H132/1000</f>
+        <f t="shared" ref="I132:I181" si="26">H132/1000</f>
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="J132">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>4.4776119402985069E-3</v>
       </c>
       <c r="K132">
         <v>0</v>
       </c>
       <c r="L132">
-        <f t="shared" ref="L132:L181" si="25">K132/1000</f>
+        <f t="shared" ref="L132:L181" si="27">K132/1000</f>
         <v>0</v>
       </c>
       <c r="M132">
-        <f t="shared" ref="M132:M181" si="26">L132/0.67</f>
+        <f t="shared" ref="M132:M181" si="28">L132/0.67</f>
         <v>0</v>
       </c>
       <c r="N132">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="O132">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.41484511053755307</v>
       </c>
-    </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P132">
+        <f t="shared" ref="P132:P181" si="29">(C132*9.81)^(1/3)/(J132^(2/3))</f>
+        <v>21.026963852070217</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -7677,48 +8209,52 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="E133">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>8.8000000000000009E-2</v>
       </c>
       <c r="F133">
         <v>7.35</v>
       </c>
       <c r="G133">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>7.3499999999999996E-2</v>
       </c>
       <c r="H133">
         <v>3</v>
       </c>
       <c r="I133">
+        <f t="shared" si="26"/>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J133">
+        <f t="shared" si="22"/>
+        <v>4.4776119402985069E-3</v>
+      </c>
+      <c r="K133">
+        <v>0</v>
+      </c>
+      <c r="L133">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="M133">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="N133">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="O133">
         <f t="shared" si="24"/>
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="J133">
-        <f t="shared" si="20"/>
-        <v>4.4776119402985069E-3</v>
-      </c>
-      <c r="K133">
-        <v>0</v>
-      </c>
-      <c r="L133">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="M133">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="N133">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="O133">
-        <f t="shared" si="22"/>
         <v>0.3972932071497236</v>
       </c>
-    </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P133">
+        <f t="shared" si="29"/>
+        <v>21.026963852070217</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -7732,48 +8268,52 @@
         <v>7.45</v>
       </c>
       <c r="E134">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>7.4499999999999997E-2</v>
       </c>
       <c r="F134">
         <v>5.7</v>
       </c>
       <c r="G134">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>5.7000000000000002E-2</v>
       </c>
       <c r="H134">
         <v>3</v>
       </c>
       <c r="I134">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="J134">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>4.4776119402985069E-3</v>
       </c>
       <c r="K134">
         <v>0.3</v>
       </c>
       <c r="L134">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="M134">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>4.477611940298507E-4</v>
       </c>
       <c r="N134">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>9.9999999999999992E-2</v>
       </c>
       <c r="O134">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.51003589152399886</v>
       </c>
-    </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P134">
+        <f t="shared" si="29"/>
+        <v>21.026963852070217</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -7787,48 +8327,52 @@
         <v>6.45</v>
       </c>
       <c r="E135">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>6.4500000000000002E-2</v>
       </c>
       <c r="F135">
         <v>4.5999999999999996</v>
       </c>
       <c r="G135">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="H135">
         <v>3</v>
       </c>
       <c r="I135">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="J135">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>4.4776119402985069E-3</v>
       </c>
       <c r="K135">
         <v>0.9</v>
       </c>
       <c r="L135">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>8.9999999999999998E-4</v>
       </c>
       <c r="M135">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1.3432835820895521E-3</v>
       </c>
       <c r="N135">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.3</v>
       </c>
       <c r="O135">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.65048325884181279</v>
       </c>
-    </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P135">
+        <f t="shared" si="29"/>
+        <v>20.651401781305378</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -7842,48 +8386,52 @@
         <v>11.6</v>
       </c>
       <c r="E136">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.11599999999999999</v>
       </c>
       <c r="F136">
         <v>9.6</v>
       </c>
       <c r="G136">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>9.6000000000000002E-2</v>
       </c>
       <c r="H136">
         <v>5</v>
       </c>
       <c r="I136">
+        <f t="shared" si="26"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J136">
+        <f t="shared" si="22"/>
+        <v>7.462686567164179E-3</v>
+      </c>
+      <c r="K136">
+        <v>0</v>
+      </c>
+      <c r="L136">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="M136">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="N136">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="O136">
         <f t="shared" si="24"/>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J136">
-        <f t="shared" si="20"/>
-        <v>7.462686567164179E-3</v>
-      </c>
-      <c r="K136">
-        <v>0</v>
-      </c>
-      <c r="L136">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="M136">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="N136">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="O136">
-        <f t="shared" si="22"/>
         <v>0.43751899586019188</v>
       </c>
-    </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P136">
+        <f t="shared" si="29"/>
+        <v>14.958133387836618</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -7897,48 +8445,52 @@
         <v>10</v>
       </c>
       <c r="E137">
-        <f t="shared" ref="E137:E181" si="27">D137/100</f>
+        <f t="shared" ref="E137:E181" si="30">D137/100</f>
         <v>0.1</v>
       </c>
       <c r="F137">
         <v>7.25</v>
       </c>
       <c r="G137">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>7.2499999999999995E-2</v>
       </c>
       <c r="H137">
         <v>5</v>
       </c>
       <c r="I137">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="J137">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>7.462686567164179E-3</v>
       </c>
       <c r="K137">
         <v>0.5</v>
       </c>
       <c r="L137">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="M137">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>7.4626865671641792E-4</v>
       </c>
       <c r="N137">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.1</v>
       </c>
       <c r="O137">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.54661796055851841</v>
       </c>
-    </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P137">
+        <f t="shared" si="29"/>
+        <v>14.958133387836618</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -7952,48 +8504,52 @@
         <v>8.5</v>
       </c>
       <c r="E138">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="F138">
         <v>6.35</v>
       </c>
       <c r="G138">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>6.3500000000000001E-2</v>
       </c>
       <c r="H138">
         <v>5</v>
       </c>
       <c r="I138">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="J138">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>7.462686567164179E-3</v>
       </c>
       <c r="K138">
         <v>1.5</v>
       </c>
       <c r="L138">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1.5E-3</v>
       </c>
       <c r="M138">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>2.2388059701492534E-3</v>
       </c>
       <c r="N138">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.3</v>
       </c>
       <c r="O138">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.69751814374035026</v>
       </c>
-    </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P138">
+        <f t="shared" si="29"/>
+        <v>14.958133387836618</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -8007,48 +8563,52 @@
         <v>7.1</v>
       </c>
       <c r="E139">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>7.0999999999999994E-2</v>
       </c>
       <c r="F139">
         <v>5.25</v>
       </c>
       <c r="G139">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>5.2499999999999998E-2</v>
       </c>
       <c r="H139">
         <v>5</v>
       </c>
       <c r="I139">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="J139">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>7.462686567164179E-3</v>
       </c>
       <c r="K139">
         <v>2.5</v>
       </c>
       <c r="L139">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="M139">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>3.7313432835820895E-3</v>
       </c>
       <c r="N139">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.5</v>
       </c>
       <c r="O139">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.91368474595800131</v>
       </c>
-    </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P139">
+        <f t="shared" si="29"/>
+        <v>14.958133387836618</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -8062,48 +8622,52 @@
         <v>14.3</v>
       </c>
       <c r="E140">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0.14300000000000002</v>
       </c>
       <c r="F140">
         <v>11.65</v>
       </c>
       <c r="G140">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.11650000000000001</v>
       </c>
       <c r="H140">
         <v>7</v>
       </c>
       <c r="I140">
+        <f t="shared" si="26"/>
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="J140">
+        <f t="shared" si="22"/>
+        <v>1.0447761194029851E-2</v>
+      </c>
+      <c r="K140">
+        <v>0</v>
+      </c>
+      <c r="L140">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="M140">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="N140">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="O140">
         <f t="shared" si="24"/>
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="J140">
-        <f t="shared" si="20"/>
-        <v>1.0447761194029851E-2</v>
-      </c>
-      <c r="K140">
-        <v>0</v>
-      </c>
-      <c r="L140">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="M140">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="N140">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="O140">
-        <f t="shared" si="22"/>
         <v>0.44751528871384966</v>
       </c>
-    </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P140">
+        <f t="shared" si="29"/>
+        <v>11.952498867965263</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -8117,48 +8681,52 @@
         <v>8.6</v>
       </c>
       <c r="E141">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>8.5999999999999993E-2</v>
       </c>
       <c r="F141">
         <v>7.1</v>
       </c>
       <c r="G141">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>7.0999999999999994E-2</v>
       </c>
       <c r="H141">
         <v>3</v>
       </c>
       <c r="I141">
+        <f t="shared" si="26"/>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J141">
+        <f t="shared" si="22"/>
+        <v>4.4776119402985069E-3</v>
+      </c>
+      <c r="K141">
+        <v>0</v>
+      </c>
+      <c r="L141">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="M141">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="N141">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="O141">
         <f t="shared" si="24"/>
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="J141">
-        <f t="shared" si="20"/>
-        <v>4.4776119402985069E-3</v>
-      </c>
-      <c r="K141">
-        <v>0</v>
-      </c>
-      <c r="L141">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="M141">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="N141">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="O141">
-        <f t="shared" si="22"/>
         <v>0.41123253885929839</v>
       </c>
-    </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P141">
+        <f t="shared" si="29"/>
+        <v>21.026963852070217</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -8172,48 +8740,52 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="E142">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>8.6999999999999994E-2</v>
       </c>
       <c r="F142">
         <v>8.4499999999999993</v>
       </c>
       <c r="G142">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>8.4499999999999992E-2</v>
       </c>
       <c r="H142">
         <v>1</v>
       </c>
       <c r="I142">
+        <f t="shared" si="26"/>
+        <v>1E-3</v>
+      </c>
+      <c r="J142">
+        <f t="shared" si="22"/>
+        <v>1.4925373134328358E-3</v>
+      </c>
+      <c r="K142">
+        <v>0</v>
+      </c>
+      <c r="L142">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="M142">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="N142">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="O142">
         <f t="shared" si="24"/>
-        <v>1E-3</v>
-      </c>
-      <c r="J142">
-        <f t="shared" si="20"/>
-        <v>1.4925373134328358E-3</v>
-      </c>
-      <c r="K142">
-        <v>0</v>
-      </c>
-      <c r="L142">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="M142">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="N142">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="O142">
-        <f t="shared" si="22"/>
         <v>0.13472091201891015</v>
       </c>
-    </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P142">
+        <f t="shared" si="29"/>
+        <v>43.737847356588375</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -8227,48 +8799,52 @@
         <v>8.75</v>
       </c>
       <c r="E143">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>8.7499999999999994E-2</v>
       </c>
       <c r="F143">
         <v>8.15</v>
       </c>
       <c r="G143">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>8.1500000000000003E-2</v>
       </c>
       <c r="H143">
         <v>1.5</v>
       </c>
       <c r="I143">
+        <f t="shared" si="26"/>
+        <v>1.5E-3</v>
+      </c>
+      <c r="J143">
+        <f t="shared" si="22"/>
+        <v>2.2388059701492534E-3</v>
+      </c>
+      <c r="K143">
+        <v>0</v>
+      </c>
+      <c r="L143">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="M143">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="N143">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="O143">
         <f t="shared" si="24"/>
-        <v>1.5E-3</v>
-      </c>
-      <c r="J143">
-        <f t="shared" si="20"/>
-        <v>2.2388059701492534E-3</v>
-      </c>
-      <c r="K143">
-        <v>0</v>
-      </c>
-      <c r="L143">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="M143">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="N143">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="O143">
-        <f t="shared" si="22"/>
         <v>0.20035171884412289</v>
       </c>
-    </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P143">
+        <f t="shared" si="29"/>
+        <v>33.378224538473546</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -8282,48 +8858,52 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="E144">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>8.8000000000000009E-2</v>
       </c>
       <c r="F144">
         <v>8</v>
       </c>
       <c r="G144">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.08</v>
       </c>
       <c r="H144">
         <v>2</v>
       </c>
       <c r="I144">
+        <f t="shared" si="26"/>
+        <v>2E-3</v>
+      </c>
+      <c r="J144">
+        <f t="shared" si="22"/>
+        <v>2.9850746268656717E-3</v>
+      </c>
+      <c r="K144">
+        <v>0</v>
+      </c>
+      <c r="L144">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="M144">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="N144">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="O144">
         <f t="shared" si="24"/>
-        <v>2E-3</v>
-      </c>
-      <c r="J144">
-        <f t="shared" si="20"/>
-        <v>2.9850746268656717E-3</v>
-      </c>
-      <c r="K144">
-        <v>0</v>
-      </c>
-      <c r="L144">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="M144">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="N144">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="O144">
-        <f t="shared" si="22"/>
         <v>0.26486213809981579</v>
       </c>
-    </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P144">
+        <f t="shared" si="29"/>
+        <v>27.553117280827269</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -8337,48 +8917,52 @@
         <v>8.9</v>
       </c>
       <c r="E145">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>8.900000000000001E-2</v>
       </c>
       <c r="F145">
         <v>7.95</v>
       </c>
       <c r="G145">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>7.9500000000000001E-2</v>
       </c>
       <c r="H145">
         <v>2.5</v>
       </c>
       <c r="I145">
+        <f t="shared" si="26"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="J145">
+        <f t="shared" si="22"/>
+        <v>3.7313432835820895E-3</v>
+      </c>
+      <c r="K145">
+        <v>0</v>
+      </c>
+      <c r="L145">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="M145">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="N145">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="O145">
         <f t="shared" si="24"/>
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="J145">
-        <f t="shared" si="20"/>
-        <v>3.7313432835820895E-3</v>
-      </c>
-      <c r="K145">
-        <v>0</v>
-      </c>
-      <c r="L145">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="M145">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="N145">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="O145">
-        <f t="shared" si="22"/>
         <v>0.32551341537383688</v>
       </c>
-    </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P145">
+        <f t="shared" si="29"/>
+        <v>23.744556675332493</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -8392,48 +8976,52 @@
         <v>9.15</v>
       </c>
       <c r="E146">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>9.1499999999999998E-2</v>
       </c>
       <c r="F146">
         <v>7.65</v>
       </c>
       <c r="G146">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>7.6499999999999999E-2</v>
       </c>
       <c r="H146">
         <v>3</v>
       </c>
       <c r="I146">
+        <f t="shared" si="26"/>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J146">
+        <f t="shared" si="22"/>
+        <v>4.4776119402985069E-3</v>
+      </c>
+      <c r="K146">
+        <v>0</v>
+      </c>
+      <c r="L146">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="M146">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="N146">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="O146">
         <f t="shared" si="24"/>
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="J146">
-        <f t="shared" si="20"/>
-        <v>4.4776119402985069E-3</v>
-      </c>
-      <c r="K146">
-        <v>0</v>
-      </c>
-      <c r="L146">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="M146">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="N146">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="O146">
-        <f t="shared" si="22"/>
         <v>0.37471709519159435</v>
       </c>
-    </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P146">
+        <f t="shared" si="29"/>
+        <v>21.026963852070217</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -8447,48 +9035,52 @@
         <v>9.35</v>
       </c>
       <c r="E147">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>9.35E-2</v>
       </c>
       <c r="F147">
         <v>7.7</v>
       </c>
       <c r="G147">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>7.6999999999999999E-2</v>
       </c>
       <c r="H147">
         <v>3.5</v>
       </c>
       <c r="I147">
+        <f t="shared" si="26"/>
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="J147">
+        <f t="shared" si="22"/>
+        <v>5.2238805970149255E-3</v>
+      </c>
+      <c r="K147">
+        <v>0</v>
+      </c>
+      <c r="L147">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="M147">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="N147">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="O147">
         <f t="shared" si="24"/>
-        <v>3.5000000000000001E-3</v>
-      </c>
-      <c r="J147">
-        <f t="shared" si="20"/>
-        <v>5.2238805970149255E-3</v>
-      </c>
-      <c r="K147">
-        <v>0</v>
-      </c>
-      <c r="L147">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="M147">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="N147">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="O147">
-        <f t="shared" si="22"/>
         <v>0.42321838069410694</v>
       </c>
-    </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P147">
+        <f t="shared" si="29"/>
+        <v>18.973409276656771</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -8502,48 +9094,52 @@
         <v>9.9</v>
       </c>
       <c r="E148">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>9.9000000000000005E-2</v>
       </c>
       <c r="F148">
         <v>7.9</v>
       </c>
       <c r="G148">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>7.9000000000000001E-2</v>
       </c>
       <c r="H148">
         <v>4</v>
       </c>
       <c r="I148">
+        <f t="shared" si="26"/>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="J148">
+        <f t="shared" si="22"/>
+        <v>5.9701492537313433E-3</v>
+      </c>
+      <c r="K148">
+        <v>0</v>
+      </c>
+      <c r="L148">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="M148">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="N148">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="O148">
         <f t="shared" si="24"/>
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="J148">
-        <f t="shared" si="20"/>
-        <v>5.9701492537313433E-3</v>
-      </c>
-      <c r="K148">
-        <v>0</v>
-      </c>
-      <c r="L148">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="M148">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="N148">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="O148">
-        <f t="shared" si="22"/>
         <v>0.4439367441302462</v>
       </c>
-    </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P148">
+        <f t="shared" si="29"/>
+        <v>17.357376226168235</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -8557,48 +9153,52 @@
         <v>10.6</v>
       </c>
       <c r="E149">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0.106</v>
       </c>
       <c r="F149">
         <v>8.3000000000000007</v>
       </c>
       <c r="G149">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>8.3000000000000004E-2</v>
       </c>
       <c r="H149">
         <v>4.5</v>
       </c>
       <c r="I149">
+        <f t="shared" si="26"/>
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="J149">
+        <f t="shared" si="22"/>
+        <v>6.7164179104477603E-3</v>
+      </c>
+      <c r="K149">
+        <v>0</v>
+      </c>
+      <c r="L149">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="M149">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="N149">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="O149">
         <f t="shared" si="24"/>
-        <v>4.4999999999999997E-3</v>
-      </c>
-      <c r="J149">
-        <f t="shared" si="20"/>
-        <v>6.7164179104477603E-3</v>
-      </c>
-      <c r="K149">
-        <v>0</v>
-      </c>
-      <c r="L149">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="M149">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="N149">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="O149">
-        <f t="shared" si="22"/>
         <v>0.45078308252919314</v>
       </c>
-    </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P149">
+        <f t="shared" si="29"/>
+        <v>16.046576666079226</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -8612,48 +9212,52 @@
         <v>11.3</v>
       </c>
       <c r="E150">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0.113</v>
       </c>
       <c r="F150">
         <v>8.75</v>
       </c>
       <c r="G150">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>8.7499999999999994E-2</v>
       </c>
       <c r="H150">
         <v>5</v>
       </c>
       <c r="I150">
+        <f t="shared" si="26"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J150">
+        <f t="shared" si="22"/>
+        <v>7.462686567164179E-3</v>
+      </c>
+      <c r="K150">
+        <v>0</v>
+      </c>
+      <c r="L150">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="M150">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="N150">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="O150">
         <f t="shared" si="24"/>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J150">
-        <f t="shared" si="20"/>
-        <v>7.462686567164179E-3</v>
-      </c>
-      <c r="K150">
-        <v>0</v>
-      </c>
-      <c r="L150">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="M150">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="N150">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="O150">
-        <f t="shared" si="22"/>
         <v>0.45505745356697386</v>
       </c>
-    </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P150">
+        <f t="shared" si="29"/>
+        <v>14.958133387836618</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -8667,48 +9271,52 @@
         <v>11.55</v>
       </c>
       <c r="E151">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0.11550000000000001</v>
       </c>
       <c r="F151">
         <v>11.7</v>
       </c>
       <c r="G151">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.11699999999999999</v>
       </c>
       <c r="H151">
         <v>1</v>
       </c>
       <c r="I151">
+        <f t="shared" si="26"/>
+        <v>1E-3</v>
+      </c>
+      <c r="J151">
+        <f t="shared" si="22"/>
+        <v>1.4925373134328358E-3</v>
+      </c>
+      <c r="K151">
+        <v>0</v>
+      </c>
+      <c r="L151">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="M151">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="N151">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="O151">
         <f t="shared" si="24"/>
-        <v>1E-3</v>
-      </c>
-      <c r="J151">
-        <f t="shared" si="20"/>
-        <v>1.4925373134328358E-3</v>
-      </c>
-      <c r="K151">
-        <v>0</v>
-      </c>
-      <c r="L151">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="M151">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="N151">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="O151">
-        <f t="shared" si="22"/>
         <v>8.8072620159292736E-2</v>
       </c>
-    </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P151">
+        <f t="shared" si="29"/>
+        <v>43.737847356588375</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -8722,48 +9330,52 @@
         <v>11.65</v>
       </c>
       <c r="E152">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0.11650000000000001</v>
       </c>
       <c r="F152">
         <v>11.7</v>
       </c>
       <c r="G152">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.11699999999999999</v>
       </c>
       <c r="H152">
         <v>1.5</v>
       </c>
       <c r="I152">
+        <f t="shared" si="26"/>
+        <v>1.5E-3</v>
+      </c>
+      <c r="J152">
+        <f t="shared" si="22"/>
+        <v>2.2388059701492534E-3</v>
+      </c>
+      <c r="K152">
+        <v>0</v>
+      </c>
+      <c r="L152">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="M152">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="N152">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="O152">
         <f t="shared" si="24"/>
-        <v>1.5E-3</v>
-      </c>
-      <c r="J152">
-        <f t="shared" si="20"/>
-        <v>2.2388059701492534E-3</v>
-      </c>
-      <c r="K152">
-        <v>0</v>
-      </c>
-      <c r="L152">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="M152">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="N152">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="O152">
-        <f t="shared" si="22"/>
         <v>0.13041161228448006</v>
       </c>
-    </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P152">
+        <f t="shared" si="29"/>
+        <v>33.378224538473546</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -8777,48 +9389,52 @@
         <v>11.6</v>
       </c>
       <c r="E153">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0.11599999999999999</v>
       </c>
       <c r="F153">
         <v>11.8</v>
       </c>
       <c r="G153">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.11800000000000001</v>
       </c>
       <c r="H153">
         <v>2</v>
       </c>
       <c r="I153">
+        <f t="shared" si="26"/>
+        <v>2E-3</v>
+      </c>
+      <c r="J153">
+        <f t="shared" si="22"/>
+        <v>2.9850746268656717E-3</v>
+      </c>
+      <c r="K153">
+        <v>0</v>
+      </c>
+      <c r="L153">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="M153">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="N153">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="O153">
         <f t="shared" si="24"/>
-        <v>2E-3</v>
-      </c>
-      <c r="J153">
-        <f t="shared" si="20"/>
-        <v>2.9850746268656717E-3</v>
-      </c>
-      <c r="K153">
-        <v>0</v>
-      </c>
-      <c r="L153">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="M153">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="N153">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="O153">
-        <f t="shared" si="22"/>
         <v>0.17500759834407675</v>
       </c>
-    </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P153">
+        <f t="shared" si="29"/>
+        <v>27.553117280827269</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -8832,48 +9448,52 @@
         <v>11.6</v>
       </c>
       <c r="E154">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0.11599999999999999</v>
       </c>
       <c r="F154">
         <v>11.65</v>
       </c>
       <c r="G154">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.11650000000000001</v>
       </c>
       <c r="H154">
         <v>2.5</v>
       </c>
       <c r="I154">
+        <f t="shared" si="26"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="J154">
+        <f t="shared" si="22"/>
+        <v>3.7313432835820895E-3</v>
+      </c>
+      <c r="K154">
+        <v>0</v>
+      </c>
+      <c r="L154">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="M154">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="N154">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="O154">
         <f t="shared" si="24"/>
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="J154">
-        <f t="shared" si="20"/>
-        <v>3.7313432835820895E-3</v>
-      </c>
-      <c r="K154">
-        <v>0</v>
-      </c>
-      <c r="L154">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="M154">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="N154">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="O154">
-        <f t="shared" si="22"/>
         <v>0.21875949793009594</v>
       </c>
-    </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P154">
+        <f t="shared" si="29"/>
+        <v>23.744556675332493</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -8887,48 +9507,52 @@
         <v>11.75</v>
       </c>
       <c r="E155">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0.11749999999999999</v>
       </c>
       <c r="F155">
         <v>11.4</v>
       </c>
       <c r="G155">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.114</v>
       </c>
       <c r="H155">
         <v>3</v>
       </c>
       <c r="I155">
+        <f t="shared" si="26"/>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J155">
+        <f t="shared" si="22"/>
+        <v>4.4776119402985069E-3</v>
+      </c>
+      <c r="K155">
+        <v>0</v>
+      </c>
+      <c r="L155">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="M155">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="N155">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="O155">
         <f t="shared" si="24"/>
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="J155">
-        <f t="shared" si="20"/>
-        <v>4.4776119402985069E-3</v>
-      </c>
-      <c r="K155">
-        <v>0</v>
-      </c>
-      <c r="L155">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="M155">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="N155">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="O155">
-        <f t="shared" si="22"/>
         <v>0.25750066084306494</v>
       </c>
-    </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P155">
+        <f t="shared" si="29"/>
+        <v>21.026963852070217</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -8942,48 +9566,52 @@
         <v>12</v>
       </c>
       <c r="E156">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0.12</v>
       </c>
       <c r="F156">
         <v>9.6</v>
       </c>
       <c r="G156">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>9.6000000000000002E-2</v>
       </c>
       <c r="H156">
         <v>3.5</v>
       </c>
       <c r="I156">
+        <f t="shared" si="26"/>
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="J156">
+        <f t="shared" si="22"/>
+        <v>5.2238805970149255E-3</v>
+      </c>
+      <c r="K156">
+        <v>0</v>
+      </c>
+      <c r="L156">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="M156">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="N156">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="O156">
         <f t="shared" si="24"/>
-        <v>3.5000000000000001E-3</v>
-      </c>
-      <c r="J156">
-        <f t="shared" si="20"/>
-        <v>5.2238805970149255E-3</v>
-      </c>
-      <c r="K156">
-        <v>0</v>
-      </c>
-      <c r="L156">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="M156">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="N156">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="O156">
-        <f t="shared" si="22"/>
         <v>0.29107845990938735</v>
       </c>
-    </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P156">
+        <f t="shared" si="29"/>
+        <v>18.973409276656771</v>
+      </c>
+    </row>
+    <row r="157" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -8997,48 +9625,52 @@
         <v>12.15</v>
       </c>
       <c r="E157">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0.1215</v>
       </c>
       <c r="F157">
         <v>10.15</v>
       </c>
       <c r="G157">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.10150000000000001</v>
       </c>
       <c r="H157">
         <v>4</v>
       </c>
       <c r="I157">
+        <f t="shared" si="26"/>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="J157">
+        <f t="shared" si="22"/>
+        <v>5.9701492537313433E-3</v>
+      </c>
+      <c r="K157">
+        <v>0</v>
+      </c>
+      <c r="L157">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="M157">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="N157">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="O157">
         <f t="shared" si="24"/>
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="J157">
-        <f t="shared" si="20"/>
-        <v>5.9701492537313433E-3</v>
-      </c>
-      <c r="K157">
-        <v>0</v>
-      </c>
-      <c r="L157">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="M157">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="N157">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="O157">
-        <f t="shared" si="22"/>
         <v>0.32651975920966952</v>
       </c>
-    </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P157">
+        <f t="shared" si="29"/>
+        <v>17.357376226168235</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -9052,48 +9684,52 @@
         <v>12.55</v>
       </c>
       <c r="E158">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0.1255</v>
       </c>
       <c r="F158">
         <v>10.45</v>
       </c>
       <c r="G158">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.1045</v>
       </c>
       <c r="H158">
         <v>4.5</v>
       </c>
       <c r="I158">
+        <f t="shared" si="26"/>
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="J158">
+        <f t="shared" si="22"/>
+        <v>6.7164179104477603E-3</v>
+      </c>
+      <c r="K158">
+        <v>0</v>
+      </c>
+      <c r="L158">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="M158">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="N158">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="O158">
         <f t="shared" si="24"/>
-        <v>4.4999999999999997E-3</v>
-      </c>
-      <c r="J158">
-        <f t="shared" si="20"/>
-        <v>6.7164179104477603E-3</v>
-      </c>
-      <c r="K158">
-        <v>0</v>
-      </c>
-      <c r="L158">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="M158">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="N158">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="O158">
-        <f t="shared" si="22"/>
         <v>0.34991359658543708</v>
       </c>
-    </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P158">
+        <f t="shared" si="29"/>
+        <v>16.046576666079226</v>
+      </c>
+    </row>
+    <row r="159" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -9107,48 +9743,52 @@
         <v>12.9</v>
       </c>
       <c r="E159">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0.129</v>
       </c>
       <c r="F159">
         <v>10.75</v>
       </c>
       <c r="G159">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.1075</v>
       </c>
       <c r="H159">
         <v>5</v>
       </c>
       <c r="I159">
+        <f t="shared" si="26"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J159">
+        <f t="shared" si="22"/>
+        <v>7.462686567164179E-3</v>
+      </c>
+      <c r="K159">
+        <v>0</v>
+      </c>
+      <c r="L159">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="M159">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="N159">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="O159">
         <f t="shared" si="24"/>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J159">
-        <f t="shared" si="20"/>
-        <v>7.462686567164179E-3</v>
-      </c>
-      <c r="K159">
-        <v>0</v>
-      </c>
-      <c r="L159">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="M159">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="N159">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="O159">
-        <f t="shared" si="22"/>
         <v>0.3730777354942727</v>
       </c>
-    </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P159">
+        <f t="shared" si="29"/>
+        <v>14.958133387836618</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -9162,48 +9802,52 @@
         <v>14.05</v>
       </c>
       <c r="E160">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0.14050000000000001</v>
       </c>
       <c r="F160">
         <v>11.35</v>
       </c>
       <c r="G160">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.11349999999999999</v>
       </c>
       <c r="H160">
         <v>7</v>
       </c>
       <c r="I160">
+        <f t="shared" si="26"/>
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="J160">
+        <f t="shared" si="22"/>
+        <v>1.0447761194029851E-2</v>
+      </c>
+      <c r="K160">
+        <v>0</v>
+      </c>
+      <c r="L160">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="M160">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="N160">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="O160">
         <f t="shared" si="24"/>
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="J160">
-        <f t="shared" si="20"/>
-        <v>1.0447761194029851E-2</v>
-      </c>
-      <c r="K160">
-        <v>0</v>
-      </c>
-      <c r="L160">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="M160">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="N160">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="O160">
-        <f t="shared" si="22"/>
         <v>0.45951262368992629</v>
       </c>
-    </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P160">
+        <f t="shared" si="29"/>
+        <v>11.952498867965263</v>
+      </c>
+    </row>
+    <row r="161" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -9217,48 +9861,52 @@
         <v>10.1</v>
       </c>
       <c r="E161">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0.10099999999999999</v>
       </c>
       <c r="F161">
         <v>9.5</v>
       </c>
       <c r="G161">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="H161">
         <v>1</v>
       </c>
       <c r="I161">
+        <f t="shared" si="26"/>
+        <v>1E-3</v>
+      </c>
+      <c r="J161">
+        <f t="shared" si="22"/>
+        <v>1.4925373134328358E-3</v>
+      </c>
+      <c r="K161">
+        <v>0</v>
+      </c>
+      <c r="L161">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="M161">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="N161">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="O161">
         <f t="shared" si="24"/>
-        <v>1E-3</v>
-      </c>
-      <c r="J161">
-        <f t="shared" si="20"/>
-        <v>1.4925373134328358E-3</v>
-      </c>
-      <c r="K161">
-        <v>0</v>
-      </c>
-      <c r="L161">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="M161">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="N161">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="O161">
-        <f t="shared" si="22"/>
         <v>0.30955991228342028</v>
       </c>
-    </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P161">
+        <f t="shared" si="29"/>
+        <v>21.636257904623971</v>
+      </c>
+    </row>
+    <row r="162" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -9272,48 +9920,52 @@
         <v>14.55</v>
       </c>
       <c r="E162">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0.14550000000000002</v>
       </c>
       <c r="F162">
         <v>13.1</v>
       </c>
       <c r="G162">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.13100000000000001</v>
       </c>
       <c r="H162">
         <v>2</v>
       </c>
       <c r="I162">
+        <f t="shared" si="26"/>
+        <v>2E-3</v>
+      </c>
+      <c r="J162">
+        <f t="shared" si="22"/>
+        <v>2.9850746268656717E-3</v>
+      </c>
+      <c r="K162">
+        <v>0</v>
+      </c>
+      <c r="L162">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="M162">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="N162">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="O162">
         <f t="shared" si="24"/>
-        <v>2E-3</v>
-      </c>
-      <c r="J162">
-        <f t="shared" si="20"/>
-        <v>2.9850746268656717E-3</v>
-      </c>
-      <c r="K162">
-        <v>0</v>
-      </c>
-      <c r="L162">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="M162">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="N162">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="O162">
-        <f t="shared" si="22"/>
         <v>0.34344420667189784</v>
       </c>
-    </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P162">
+        <f t="shared" si="29"/>
+        <v>14.014132200638679</v>
+      </c>
+    </row>
+    <row r="163" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -9327,48 +9979,52 @@
         <v>13.15</v>
       </c>
       <c r="E163">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0.13150000000000001</v>
       </c>
       <c r="F163">
         <v>12</v>
       </c>
       <c r="G163">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.12</v>
       </c>
       <c r="H163">
         <v>2</v>
       </c>
       <c r="I163">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2E-3</v>
       </c>
       <c r="J163">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>2.9850746268656717E-3</v>
       </c>
       <c r="K163">
         <v>0.4</v>
       </c>
       <c r="L163">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>4.0000000000000002E-4</v>
       </c>
       <c r="M163">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>5.9701492537313433E-4</v>
       </c>
       <c r="N163">
-        <f t="shared" ref="N163:N181" si="28">L163/I163</f>
+        <f t="shared" ref="N163:N181" si="31">L163/I163</f>
         <v>0.2</v>
       </c>
       <c r="O163">
-        <f t="shared" ref="O163:O181" si="29">J163/SQRT(9.81*C163*E163^3)</f>
+        <f t="shared" ref="O163:O181" si="32">J163/SQRT(9.81*C163*E163^3)</f>
         <v>0.42610901220318526</v>
       </c>
-    </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P163">
+        <f t="shared" si="29"/>
+        <v>13.42951826112863</v>
+      </c>
+    </row>
+    <row r="164" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -9382,48 +10038,52 @@
         <v>11.85</v>
       </c>
       <c r="E164">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0.11849999999999999</v>
       </c>
       <c r="F164">
         <v>11</v>
       </c>
       <c r="G164">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.11</v>
       </c>
       <c r="H164">
         <v>2</v>
       </c>
       <c r="I164">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2E-3</v>
       </c>
       <c r="J164">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>2.9850746268656717E-3</v>
       </c>
       <c r="K164">
         <v>0.6</v>
       </c>
       <c r="L164">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>5.9999999999999995E-4</v>
       </c>
       <c r="M164">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>8.9552238805970139E-4</v>
       </c>
       <c r="N164">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0.3</v>
       </c>
       <c r="O164">
+        <f t="shared" si="32"/>
+        <v>0.47691122325287005</v>
+      </c>
+      <c r="P164">
         <f t="shared" si="29"/>
-        <v>0.47691122325287005</v>
-      </c>
-    </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
+        <v>13.824728817791421</v>
+      </c>
+    </row>
+    <row r="165" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -9437,48 +10097,52 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="E165">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>9.8000000000000004E-2</v>
       </c>
       <c r="F165">
         <v>8.6999999999999993</v>
       </c>
       <c r="G165">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>8.6999999999999994E-2</v>
       </c>
       <c r="H165">
         <v>2</v>
       </c>
       <c r="I165">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2E-3</v>
       </c>
       <c r="J165">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>2.9850746268656717E-3</v>
       </c>
       <c r="K165">
         <v>1</v>
       </c>
       <c r="L165">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1E-3</v>
       </c>
       <c r="M165">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1.4925373134328358E-3</v>
       </c>
       <c r="N165">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0.5</v>
       </c>
       <c r="O165">
+        <f t="shared" si="32"/>
+        <v>0.67790982523196275</v>
+      </c>
+      <c r="P165">
         <f t="shared" si="29"/>
-        <v>0.67790982523196275</v>
-      </c>
-    </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
+        <v>13.222877424462638</v>
+      </c>
+    </row>
+    <row r="166" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -9492,48 +10156,52 @@
         <v>17.899999999999999</v>
       </c>
       <c r="E166">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0.17899999999999999</v>
       </c>
       <c r="F166">
         <v>16.5</v>
       </c>
       <c r="G166">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.16500000000000001</v>
       </c>
       <c r="H166">
         <v>3</v>
       </c>
       <c r="I166">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="J166">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>4.4776119402985069E-3</v>
       </c>
       <c r="K166">
         <v>0</v>
       </c>
       <c r="L166">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="M166">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N166">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="O166">
+        <f t="shared" si="32"/>
+        <v>0.41192936699312654</v>
+      </c>
+      <c r="P166">
         <f t="shared" si="29"/>
-        <v>0.41192936699312654</v>
-      </c>
-    </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
+        <v>10.09094407687954</v>
+      </c>
+    </row>
+    <row r="167" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -9547,48 +10215,52 @@
         <v>18.25</v>
       </c>
       <c r="E167">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0.1825</v>
       </c>
       <c r="F167">
         <v>16</v>
       </c>
       <c r="G167">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.16</v>
       </c>
       <c r="H167">
         <v>3</v>
       </c>
       <c r="I167">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="J167">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>4.4776119402985069E-3</v>
       </c>
       <c r="K167">
         <v>0</v>
       </c>
       <c r="L167">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="M167">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N167">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="O167">
+        <f t="shared" si="32"/>
+        <v>0.40013634220497052</v>
+      </c>
+      <c r="P167">
         <f t="shared" si="29"/>
-        <v>0.40013634220497052</v>
-      </c>
-    </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
+        <v>10.09094407687954</v>
+      </c>
+    </row>
+    <row r="168" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -9602,48 +10274,52 @@
         <v>15.5</v>
       </c>
       <c r="E168">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0.155</v>
       </c>
       <c r="F168">
         <v>13.45</v>
       </c>
       <c r="G168">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.13449999999999998</v>
       </c>
       <c r="H168">
         <v>3</v>
       </c>
       <c r="I168">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="J168">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>4.4776119402985069E-3</v>
       </c>
       <c r="K168">
         <v>0.9</v>
       </c>
       <c r="L168">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>8.9999999999999998E-4</v>
       </c>
       <c r="M168">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1.3432835820895521E-3</v>
       </c>
       <c r="N168">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0.3</v>
       </c>
       <c r="O168">
+        <f t="shared" si="32"/>
+        <v>0.51121637176625212</v>
+      </c>
+      <c r="P168">
         <f t="shared" si="29"/>
-        <v>0.51121637176625212</v>
-      </c>
-    </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
+        <v>10.09094407687954</v>
+      </c>
+    </row>
+    <row r="169" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -9657,48 +10333,52 @@
         <v>12.6</v>
       </c>
       <c r="E169">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0.126</v>
       </c>
       <c r="F169">
         <v>11.3</v>
       </c>
       <c r="G169">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.113</v>
       </c>
       <c r="H169">
         <v>3</v>
       </c>
       <c r="I169">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="J169">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>4.4776119402985069E-3</v>
       </c>
       <c r="K169">
         <v>1.5</v>
       </c>
       <c r="L169">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1.5E-3</v>
       </c>
       <c r="M169">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>2.2388059701492534E-3</v>
       </c>
       <c r="N169">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0.5</v>
       </c>
       <c r="O169">
+        <f t="shared" si="32"/>
+        <v>0.71472855391297119</v>
+      </c>
+      <c r="P169">
         <f t="shared" si="29"/>
-        <v>0.71472855391297119</v>
-      </c>
-    </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
+        <v>9.9281584484444423</v>
+      </c>
+    </row>
+    <row r="170" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -9712,48 +10392,52 @@
         <v>22.05</v>
       </c>
       <c r="E170">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0.2205</v>
       </c>
       <c r="F170">
         <v>19.95</v>
       </c>
       <c r="G170">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.19949999999999998</v>
       </c>
       <c r="H170">
         <v>4</v>
       </c>
       <c r="I170">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="J170">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>5.9701492537313433E-3</v>
       </c>
       <c r="K170">
         <v>0</v>
       </c>
       <c r="L170">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="M170">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N170">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="O170">
+        <f t="shared" si="32"/>
+        <v>0.41164495424664876</v>
+      </c>
+      <c r="P170">
         <f t="shared" si="29"/>
-        <v>0.41164495424664876</v>
-      </c>
-    </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
+        <v>8.1955142280655195</v>
+      </c>
+    </row>
+    <row r="171" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -9767,48 +10451,52 @@
         <v>26.5</v>
       </c>
       <c r="E171">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0.26500000000000001</v>
       </c>
       <c r="F171">
         <v>23.45</v>
       </c>
       <c r="G171">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.23449999999999999</v>
       </c>
       <c r="H171">
         <v>5</v>
       </c>
       <c r="I171">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="J171">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>7.462686567164179E-3</v>
       </c>
       <c r="K171">
         <v>0</v>
       </c>
       <c r="L171">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="M171">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N171">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="O171">
+        <f t="shared" si="32"/>
+        <v>0.39055022218054142</v>
+      </c>
+      <c r="P171">
         <f t="shared" si="29"/>
-        <v>0.39055022218054142</v>
-      </c>
-    </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
+        <v>7.0626800622376926</v>
+      </c>
+    </row>
+    <row r="172" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -9822,48 +10510,52 @@
         <v>22.8</v>
       </c>
       <c r="E172">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0.22800000000000001</v>
       </c>
       <c r="F172">
         <v>21.15</v>
       </c>
       <c r="G172">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.21149999999999999</v>
       </c>
       <c r="H172">
         <v>5</v>
       </c>
       <c r="I172">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="J172">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>7.462686567164179E-3</v>
       </c>
       <c r="K172">
         <v>1</v>
       </c>
       <c r="L172">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1E-3</v>
       </c>
       <c r="M172">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1.4925373134328358E-3</v>
       </c>
       <c r="N172">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0.2</v>
       </c>
       <c r="O172">
+        <f t="shared" si="32"/>
+        <v>0.51584850340667754</v>
+      </c>
+      <c r="P172">
         <f t="shared" si="29"/>
-        <v>0.51584850340667754</v>
-      </c>
-    </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
+        <v>6.8189426269563205</v>
+      </c>
+    </row>
+    <row r="173" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -9877,48 +10569,52 @@
         <v>19.899999999999999</v>
       </c>
       <c r="E173">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0.19899999999999998</v>
       </c>
       <c r="F173">
         <v>19.899999999999999</v>
       </c>
       <c r="G173">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.19899999999999998</v>
       </c>
       <c r="H173">
         <v>5</v>
       </c>
       <c r="I173">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="J173">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>7.462686567164179E-3</v>
       </c>
       <c r="K173">
         <v>1.5</v>
       </c>
       <c r="L173">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1.5E-3</v>
       </c>
       <c r="M173">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>2.2388059701492534E-3</v>
       </c>
       <c r="N173">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0.3</v>
       </c>
       <c r="O173">
+        <f t="shared" si="32"/>
+        <v>0.65096347691725309</v>
+      </c>
+      <c r="P173">
         <f t="shared" si="29"/>
-        <v>0.65096347691725309</v>
-      </c>
-    </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
+        <v>6.690252492363971</v>
+      </c>
+    </row>
+    <row r="174" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -9932,48 +10628,52 @@
         <v>6.7</v>
       </c>
       <c r="E174">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="F174">
         <v>6.65</v>
       </c>
       <c r="G174">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>6.6500000000000004E-2</v>
       </c>
       <c r="H174">
         <v>1</v>
       </c>
       <c r="I174">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1E-3</v>
       </c>
       <c r="J174">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.4925373134328358E-3</v>
       </c>
       <c r="K174">
         <v>0</v>
       </c>
       <c r="L174">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="M174">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N174">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="O174">
+        <f t="shared" si="32"/>
+        <v>0.19934332094510737</v>
+      </c>
+      <c r="P174">
         <f t="shared" si="29"/>
-        <v>0.19934332094510737</v>
-      </c>
-    </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.3">
+        <v>43.737847356588375</v>
+      </c>
+    </row>
+    <row r="175" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -9987,48 +10687,52 @@
         <v>9.6</v>
       </c>
       <c r="E175">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>9.6000000000000002E-2</v>
       </c>
       <c r="F175">
         <v>8.85</v>
       </c>
       <c r="G175">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>8.8499999999999995E-2</v>
       </c>
       <c r="H175">
         <v>3</v>
       </c>
       <c r="I175">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="J175">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>4.4776119402985069E-3</v>
       </c>
       <c r="K175">
         <v>0</v>
       </c>
       <c r="L175">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="M175">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N175">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="O175">
+        <f t="shared" si="32"/>
+        <v>0.34868101239821631</v>
+      </c>
+      <c r="P175">
         <f t="shared" si="29"/>
-        <v>0.34868101239821631</v>
-      </c>
-    </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
+        <v>21.026963852070217</v>
+      </c>
+    </row>
+    <row r="176" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -10042,48 +10746,52 @@
         <v>11.65</v>
       </c>
       <c r="E176">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0.11650000000000001</v>
       </c>
       <c r="F176">
         <v>10.85</v>
       </c>
       <c r="G176">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.1085</v>
       </c>
       <c r="H176">
         <v>4</v>
       </c>
       <c r="I176">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="J176">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>5.9701492537313433E-3</v>
       </c>
       <c r="K176">
         <v>0</v>
       </c>
       <c r="L176">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="M176">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N176">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="O176">
+        <f t="shared" si="32"/>
+        <v>0.3477642994252802</v>
+      </c>
+      <c r="P176">
         <f t="shared" si="29"/>
-        <v>0.3477642994252802</v>
-      </c>
-    </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.3">
+        <v>17.357376226168235</v>
+      </c>
+    </row>
+    <row r="177" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -10097,48 +10805,52 @@
         <v>8.85</v>
       </c>
       <c r="E177">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>8.8499999999999995E-2</v>
       </c>
       <c r="F177">
         <v>7.85</v>
       </c>
       <c r="G177">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>7.85E-2</v>
       </c>
       <c r="H177">
         <v>4</v>
       </c>
       <c r="I177">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="J177">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>5.9701492537313433E-3</v>
       </c>
       <c r="K177">
         <v>1.2</v>
       </c>
       <c r="L177">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1.1999999999999999E-3</v>
       </c>
       <c r="M177">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1.7910447761194028E-3</v>
       </c>
       <c r="N177">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0.3</v>
       </c>
       <c r="O177">
+        <f t="shared" si="32"/>
+        <v>0.51194202391902155</v>
+      </c>
+      <c r="P177">
         <f t="shared" si="29"/>
-        <v>0.51194202391902155</v>
-      </c>
-    </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.3">
+        <v>17.656700155594233</v>
+      </c>
+    </row>
+    <row r="178" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -10152,48 +10864,52 @@
         <v>6.9</v>
       </c>
       <c r="E178">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>6.9000000000000006E-2</v>
       </c>
       <c r="F178">
         <v>6.4</v>
       </c>
       <c r="G178">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>6.4000000000000001E-2</v>
       </c>
       <c r="H178">
         <v>4</v>
       </c>
       <c r="I178">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="J178">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>5.9701492537313433E-3</v>
       </c>
       <c r="K178">
         <v>2</v>
       </c>
       <c r="L178">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>2E-3</v>
       </c>
       <c r="M178">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>2.9850746268656717E-3</v>
       </c>
       <c r="N178">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0.5</v>
       </c>
       <c r="O178">
+        <f t="shared" si="32"/>
+        <v>0.76295732746481848</v>
+      </c>
+      <c r="P178">
         <f t="shared" si="29"/>
-        <v>0.76295732746481848</v>
-      </c>
-    </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.3">
+        <v>17.357376226168235</v>
+      </c>
+    </row>
+    <row r="179" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -10207,48 +10923,52 @@
         <v>12.9</v>
       </c>
       <c r="E179">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0.129</v>
       </c>
       <c r="F179">
         <v>11.55</v>
       </c>
       <c r="G179">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.11550000000000001</v>
       </c>
       <c r="H179">
         <v>5</v>
       </c>
       <c r="I179">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="J179">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>7.462686567164179E-3</v>
       </c>
       <c r="K179">
         <v>0</v>
       </c>
       <c r="L179">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="M179">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N179">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="O179">
+        <f t="shared" si="32"/>
+        <v>0.36363119624897111</v>
+      </c>
+      <c r="P179">
         <f t="shared" si="29"/>
-        <v>0.36363119624897111</v>
-      </c>
-    </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.3">
+        <v>15.216082930681431</v>
+      </c>
+    </row>
+    <row r="180" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -10262,48 +10982,52 @@
         <v>16.350000000000001</v>
       </c>
       <c r="E180">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0.16350000000000001</v>
       </c>
       <c r="F180">
         <v>14.7</v>
       </c>
       <c r="G180">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.14699999999999999</v>
       </c>
       <c r="H180">
         <v>7</v>
       </c>
       <c r="I180">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="J180">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.0447761194029851E-2</v>
       </c>
       <c r="K180">
         <v>0</v>
       </c>
       <c r="L180">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="M180">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N180">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="O180">
+        <f t="shared" si="32"/>
+        <v>0.35677720614596337</v>
+      </c>
+      <c r="P180">
         <f t="shared" si="29"/>
-        <v>0.35677720614596337</v>
-      </c>
-    </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.3">
+        <v>12.15861694024772</v>
+      </c>
+    </row>
+    <row r="181" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -10317,45 +11041,49 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="E181">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>9.1999999999999998E-2</v>
       </c>
       <c r="F181">
         <v>9.1</v>
       </c>
       <c r="G181">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>9.0999999999999998E-2</v>
       </c>
       <c r="H181">
         <v>7</v>
       </c>
       <c r="I181">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="J181">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.0447761194029851E-2</v>
       </c>
       <c r="K181">
         <v>3.5</v>
       </c>
       <c r="L181">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>3.5000000000000001E-3</v>
       </c>
       <c r="M181">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>5.2238805970149255E-3</v>
       </c>
       <c r="N181">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0.5</v>
       </c>
       <c r="O181">
+        <f t="shared" si="32"/>
+        <v>0.86722181120927055</v>
+      </c>
+      <c r="P181">
         <f t="shared" si="29"/>
-        <v>0.86722181120927055</v>
+        <v>11.952498867965263</v>
       </c>
     </row>
   </sheetData>
